--- a/JupyterNotebooks/AvgHW/ShearF-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +564,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,22 +632,22 @@
         <v>1.860651811933152</v>
       </c>
       <c r="E3">
+        <v>1.860651811933152</v>
+      </c>
+      <c r="F3">
         <v>1.00709299985256</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>0.9347681516241226</v>
+      </c>
+      <c r="H3">
+        <v>1.022537689336039</v>
+      </c>
+      <c r="I3">
+        <v>1.279287739271088</v>
+      </c>
+      <c r="J3">
         <v>1.418544780432685</v>
-      </c>
-      <c r="G3">
-        <v>1.022537689336039</v>
-      </c>
-      <c r="H3">
-        <v>1.279287739271088</v>
-      </c>
-      <c r="I3">
-        <v>0.9347681516241226</v>
-      </c>
-      <c r="J3">
-        <v>1.860651811933152</v>
       </c>
       <c r="K3">
         <v>1.418544780432685</v>
@@ -682,22 +694,22 @@
         <v>2.990248636793881</v>
       </c>
       <c r="E4">
+        <v>2.990248636793881</v>
+      </c>
+      <c r="F4">
         <v>1.198754076655346</v>
       </c>
-      <c r="F4">
+      <c r="G4">
+        <v>0.832651845725387</v>
+      </c>
+      <c r="H4">
+        <v>1.453259461500786</v>
+      </c>
+      <c r="I4">
+        <v>1.681010733892708</v>
+      </c>
+      <c r="J4">
         <v>1.614038120730488</v>
-      </c>
-      <c r="G4">
-        <v>1.453259461500786</v>
-      </c>
-      <c r="H4">
-        <v>1.681010733892708</v>
-      </c>
-      <c r="I4">
-        <v>0.832651845725387</v>
-      </c>
-      <c r="J4">
-        <v>2.990248636793881</v>
       </c>
       <c r="K4">
         <v>1.614038120730488</v>
@@ -718,13 +730,13 @@
         <v>1.934346944726571</v>
       </c>
       <c r="Q4">
-        <v>1.934346944726571</v>
+        <v>1.934346944726572</v>
       </c>
       <c r="R4">
-        <v>1.85426973872755</v>
+        <v>1.854269738727551</v>
       </c>
       <c r="S4">
-        <v>1.85426973872755</v>
+        <v>1.854269738727551</v>
       </c>
       <c r="T4">
         <v>1.628327145883099</v>
@@ -738,31 +750,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.135331206369315</v>
+        <v>4.135331206369314</v>
       </c>
       <c r="D5">
         <v>2.867277901681242</v>
       </c>
       <c r="E5">
+        <v>2.867277901681242</v>
+      </c>
+      <c r="F5">
         <v>0.2559661095282176</v>
       </c>
-      <c r="F5">
-        <v>4.135331206369315</v>
-      </c>
       <c r="G5">
+        <v>0.9662870797819471</v>
+      </c>
+      <c r="H5">
         <v>4.329996223957933</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.600277093300255</v>
       </c>
-      <c r="I5">
-        <v>0.9662870797819471</v>
-      </c>
       <c r="J5">
-        <v>2.867277901681242</v>
+        <v>4.135331206369314</v>
       </c>
       <c r="K5">
-        <v>4.135331206369315</v>
+        <v>4.135331206369314</v>
       </c>
       <c r="L5">
         <v>0.2559661095282176</v>
@@ -783,10 +795,10 @@
         <v>2.419525072526258</v>
       </c>
       <c r="R5">
-        <v>2.848476605987023</v>
+        <v>2.848476605987022</v>
       </c>
       <c r="S5">
-        <v>2.848476605987023</v>
+        <v>2.848476605987022</v>
       </c>
       <c r="T5">
         <v>2.359189269103152</v>
@@ -806,28 +818,28 @@
         <v>19.85558231626316</v>
       </c>
       <c r="E6">
-        <v>2.610193499615355</v>
+        <v>19.85558231626316</v>
       </c>
       <c r="F6">
+        <v>2.610193499615356</v>
+      </c>
+      <c r="G6">
+        <v>0.08999357144096055</v>
+      </c>
+      <c r="H6">
+        <v>0.05394110470409223</v>
+      </c>
+      <c r="I6">
+        <v>2.335698284979014</v>
+      </c>
+      <c r="J6">
         <v>7.935375613147194</v>
-      </c>
-      <c r="G6">
-        <v>0.05394110470409223</v>
-      </c>
-      <c r="H6">
-        <v>2.335698284979014</v>
-      </c>
-      <c r="I6">
-        <v>0.08999357144096055</v>
-      </c>
-      <c r="J6">
-        <v>19.85558231626316</v>
       </c>
       <c r="K6">
         <v>7.935375613147194</v>
       </c>
       <c r="L6">
-        <v>2.610193499615355</v>
+        <v>2.610193499615356</v>
       </c>
       <c r="M6">
         <v>11.23288790793926</v>
@@ -862,58 +874,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.088360461186091</v>
+        <v>1.088360461186095</v>
       </c>
       <c r="D7">
         <v>1.213261964864897</v>
       </c>
       <c r="E7">
-        <v>1.02205996992434</v>
+        <v>1.213261964864897</v>
       </c>
       <c r="F7">
-        <v>1.088360461186091</v>
+        <v>1.022059969924341</v>
       </c>
       <c r="G7">
+        <v>0.9794617712348164</v>
+      </c>
+      <c r="H7">
         <v>1.052806616945357</v>
       </c>
-      <c r="H7">
-        <v>1.010081731991739</v>
-      </c>
       <c r="I7">
-        <v>0.9794617712348143</v>
+        <v>1.01008173199174</v>
       </c>
       <c r="J7">
-        <v>1.213261964864897</v>
+        <v>1.088360461186095</v>
       </c>
       <c r="K7">
-        <v>1.088360461186091</v>
+        <v>1.088360461186095</v>
       </c>
       <c r="L7">
-        <v>1.02205996992434</v>
+        <v>1.022059969924341</v>
       </c>
       <c r="M7">
-        <v>1.117660967394618</v>
+        <v>1.117660967394619</v>
       </c>
       <c r="N7">
-        <v>1.117660967394618</v>
+        <v>1.117660967394619</v>
       </c>
       <c r="O7">
         <v>1.081801222260325</v>
       </c>
       <c r="P7">
-        <v>1.107894131991776</v>
+        <v>1.107894131991777</v>
       </c>
       <c r="Q7">
-        <v>1.107894131991776</v>
+        <v>1.107894131991777</v>
       </c>
       <c r="R7">
-        <v>1.103010714290355</v>
+        <v>1.103010714290357</v>
       </c>
       <c r="S7">
-        <v>1.103010714290355</v>
+        <v>1.103010714290357</v>
       </c>
       <c r="T7">
-        <v>1.061005419357873</v>
+        <v>1.061005419357874</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -927,55 +939,55 @@
         <v>1.156039200881489</v>
       </c>
       <c r="D8">
-        <v>1.433083181673513</v>
+        <v>1.433083181673554</v>
       </c>
       <c r="E8">
-        <v>1.019674424197586</v>
+        <v>1.433083181673554</v>
       </c>
       <c r="F8">
+        <v>1.019674424197587</v>
+      </c>
+      <c r="G8">
+        <v>0.9767335214276454</v>
+      </c>
+      <c r="H8">
+        <v>1.051873176257994</v>
+      </c>
+      <c r="I8">
+        <v>1.011162828160107</v>
+      </c>
+      <c r="J8">
         <v>1.156039200881489</v>
-      </c>
-      <c r="G8">
-        <v>1.051873176257994</v>
-      </c>
-      <c r="H8">
-        <v>1.011162828160106</v>
-      </c>
-      <c r="I8">
-        <v>0.9767335214276449</v>
-      </c>
-      <c r="J8">
-        <v>1.433083181673513</v>
       </c>
       <c r="K8">
         <v>1.156039200881489</v>
       </c>
       <c r="L8">
-        <v>1.019674424197586</v>
+        <v>1.019674424197587</v>
       </c>
       <c r="M8">
-        <v>1.226378802935549</v>
+        <v>1.226378802935571</v>
       </c>
       <c r="N8">
-        <v>1.226378802935549</v>
+        <v>1.226378802935571</v>
       </c>
       <c r="O8">
-        <v>1.154640144677068</v>
+        <v>1.154640144677083</v>
       </c>
       <c r="P8">
-        <v>1.202932268917529</v>
+        <v>1.202932268917543</v>
       </c>
       <c r="Q8">
-        <v>1.202932268917529</v>
+        <v>1.202932268917543</v>
       </c>
       <c r="R8">
-        <v>1.191209001908519</v>
+        <v>1.19120900190853</v>
       </c>
       <c r="S8">
-        <v>1.191209001908519</v>
+        <v>1.19120900190853</v>
       </c>
       <c r="T8">
-        <v>1.108094388766389</v>
+        <v>1.108094388766396</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -992,22 +1004,22 @@
         <v>1.66368559927018</v>
       </c>
       <c r="E9">
+        <v>1.66368559927018</v>
+      </c>
+      <c r="F9">
         <v>1.024775802828273</v>
       </c>
-      <c r="F9">
+      <c r="G9">
+        <v>0.9737956176905396</v>
+      </c>
+      <c r="H9">
+        <v>1.005653107482082</v>
+      </c>
+      <c r="I9">
+        <v>0.9622531479041374</v>
+      </c>
+      <c r="J9">
         <v>1.373907913249817</v>
-      </c>
-      <c r="G9">
-        <v>1.005653107482082</v>
-      </c>
-      <c r="H9">
-        <v>0.9622531479041376</v>
-      </c>
-      <c r="I9">
-        <v>0.9737956176905396</v>
-      </c>
-      <c r="J9">
-        <v>1.66368559927018</v>
       </c>
       <c r="K9">
         <v>1.373907913249817</v>
@@ -1054,22 +1066,22 @@
         <v>1.688315945849754</v>
       </c>
       <c r="E10">
+        <v>1.688315945849754</v>
+      </c>
+      <c r="F10">
         <v>1.038800848853574</v>
       </c>
-      <c r="F10">
+      <c r="G10">
+        <v>0.9717261062944532</v>
+      </c>
+      <c r="H10">
+        <v>0.830882227038942</v>
+      </c>
+      <c r="I10">
+        <v>0.9222055978286278</v>
+      </c>
+      <c r="J10">
         <v>1.707615870072982</v>
-      </c>
-      <c r="G10">
-        <v>0.830882227038942</v>
-      </c>
-      <c r="H10">
-        <v>0.9222055978286278</v>
-      </c>
-      <c r="I10">
-        <v>0.9717261062944532</v>
-      </c>
-      <c r="J10">
-        <v>1.688315945849754</v>
       </c>
       <c r="K10">
         <v>1.707615870072982</v>
@@ -1116,28 +1128,28 @@
         <v>3.689016962281872</v>
       </c>
       <c r="E11">
-        <v>0.8341444503765273</v>
+        <v>3.689016962281872</v>
       </c>
       <c r="F11">
+        <v>0.8341444503765274</v>
+      </c>
+      <c r="G11">
+        <v>0.8237587541188875</v>
+      </c>
+      <c r="H11">
+        <v>2.217880479585305</v>
+      </c>
+      <c r="I11">
+        <v>0.6734479937056892</v>
+      </c>
+      <c r="J11">
         <v>2.75498545436585</v>
-      </c>
-      <c r="G11">
-        <v>2.21788047958531</v>
-      </c>
-      <c r="H11">
-        <v>0.6734479937056892</v>
-      </c>
-      <c r="I11">
-        <v>0.8237587541188873</v>
-      </c>
-      <c r="J11">
-        <v>3.689016962281872</v>
       </c>
       <c r="K11">
         <v>2.75498545436585</v>
       </c>
       <c r="L11">
-        <v>0.8341444503765273</v>
+        <v>0.8341444503765274</v>
       </c>
       <c r="M11">
         <v>2.2615807063292</v>
@@ -1172,43 +1184,43 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>5.662840107515387</v>
+        <v>5.66284010751539</v>
       </c>
       <c r="D12">
-        <v>0.001299818629037551</v>
+        <v>0.001299818629037552</v>
       </c>
       <c r="E12">
-        <v>-0.001364000895071941</v>
+        <v>0.001299818629037552</v>
       </c>
       <c r="F12">
-        <v>5.662840107515387</v>
+        <v>-0.001364000895071943</v>
       </c>
       <c r="G12">
-        <v>0.0009333249709170003</v>
+        <v>1.199397461479271</v>
       </c>
       <c r="H12">
-        <v>1.442004732701289</v>
+        <v>0.0009333249709170005</v>
       </c>
       <c r="I12">
-        <v>1.199397461479271</v>
+        <v>1.442004732701281</v>
       </c>
       <c r="J12">
-        <v>0.001299818629037551</v>
+        <v>5.66284010751539</v>
       </c>
       <c r="K12">
-        <v>5.662840107515387</v>
+        <v>5.66284010751539</v>
       </c>
       <c r="L12">
-        <v>-0.001364000895071941</v>
+        <v>-0.001364000895071943</v>
       </c>
       <c r="M12">
-        <v>-3.209113301719507E-05</v>
+        <v>-3.20911330171955E-05</v>
       </c>
       <c r="N12">
-        <v>-3.209113301719507E-05</v>
+        <v>-3.20911330171955E-05</v>
       </c>
       <c r="O12">
-        <v>0.4806468501450848</v>
+        <v>0.4806468501450822</v>
       </c>
       <c r="P12">
         <v>1.887591975083118</v>
@@ -1217,13 +1229,13 @@
         <v>1.887591975083118</v>
       </c>
       <c r="R12">
-        <v>2.831404008191185</v>
+        <v>2.831404008191186</v>
       </c>
       <c r="S12">
-        <v>2.831404008191185</v>
+        <v>2.831404008191186</v>
       </c>
       <c r="T12">
-        <v>1.384185240733472</v>
+        <v>1.384185240733471</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,40 +1246,40 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>-0.003057026860160015</v>
+        <v>-0.003057026860160005</v>
       </c>
       <c r="D13">
         <v>0.07655865010261245</v>
       </c>
       <c r="E13">
-        <v>3.858319634524491</v>
+        <v>0.07655865010261245</v>
       </c>
       <c r="F13">
-        <v>-0.003057026860160015</v>
+        <v>3.85831963452449</v>
       </c>
       <c r="G13">
-        <v>0.005684776780114519</v>
+        <v>1.104380602830818</v>
       </c>
       <c r="H13">
-        <v>0.002382954125453754</v>
+        <v>0.005684776780114497</v>
       </c>
       <c r="I13">
-        <v>1.104380602830819</v>
+        <v>0.002382954125453752</v>
       </c>
       <c r="J13">
-        <v>0.07655865010261245</v>
+        <v>-0.003057026860160005</v>
       </c>
       <c r="K13">
-        <v>-0.003057026860160015</v>
+        <v>-0.003057026860160005</v>
       </c>
       <c r="L13">
-        <v>3.858319634524491</v>
+        <v>3.85831963452449</v>
       </c>
       <c r="M13">
-        <v>1.967439142313552</v>
+        <v>1.967439142313551</v>
       </c>
       <c r="N13">
-        <v>1.967439142313552</v>
+        <v>1.967439142313551</v>
       </c>
       <c r="O13">
         <v>1.312420412917519</v>
@@ -1279,13 +1291,13 @@
         <v>1.310607085922314</v>
       </c>
       <c r="R13">
-        <v>0.9821910577266958</v>
+        <v>0.9821910577266957</v>
       </c>
       <c r="S13">
-        <v>0.9821910577266958</v>
+        <v>0.9821910577266957</v>
       </c>
       <c r="T13">
-        <v>0.8407115985838883</v>
+        <v>0.8407115985838881</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,43 +1308,43 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.003429442487536855</v>
+        <v>0.003429442487536849</v>
       </c>
       <c r="D14">
-        <v>0.003550294423994042</v>
+        <v>0.003550294423994047</v>
       </c>
       <c r="E14">
-        <v>-0.001502850586985305</v>
+        <v>0.003550294423994047</v>
       </c>
       <c r="F14">
-        <v>0.003429442487536855</v>
+        <v>-0.001502850586985303</v>
       </c>
       <c r="G14">
-        <v>0.4085801478222004</v>
+        <v>3.329147908393139</v>
       </c>
       <c r="H14">
-        <v>-0.001791996581089028</v>
+        <v>0.4085801478221999</v>
       </c>
       <c r="I14">
-        <v>3.329147908393137</v>
+        <v>-0.001791996581089031</v>
       </c>
       <c r="J14">
-        <v>0.003550294423994042</v>
+        <v>0.003429442487536849</v>
       </c>
       <c r="K14">
-        <v>0.003429442487536855</v>
+        <v>0.003429442487536849</v>
       </c>
       <c r="L14">
-        <v>-0.001502850586985305</v>
+        <v>-0.001502850586985303</v>
       </c>
       <c r="M14">
-        <v>0.001023721918504368</v>
+        <v>0.001023721918504372</v>
       </c>
       <c r="N14">
-        <v>0.001023721918504368</v>
+        <v>0.001023721918504372</v>
       </c>
       <c r="O14">
-        <v>8.514908530656968E-05</v>
+        <v>8.514908530657113E-05</v>
       </c>
       <c r="P14">
         <v>0.001825628774848531</v>
@@ -1341,13 +1353,13 @@
         <v>0.001825628774848531</v>
       </c>
       <c r="R14">
-        <v>0.002226582203020612</v>
+        <v>0.002226582203020611</v>
       </c>
       <c r="S14">
-        <v>0.002226582203020612</v>
+        <v>0.002226582203020611</v>
       </c>
       <c r="T14">
-        <v>0.6235688243264657</v>
+        <v>0.623568824326466</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,34 +1370,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.697254818845404</v>
+        <v>1.697254818845401</v>
       </c>
       <c r="D15">
         <v>0.07612010679240608</v>
       </c>
       <c r="E15">
-        <v>0.04034612682130259</v>
+        <v>0.07612010679240608</v>
       </c>
       <c r="F15">
-        <v>1.697254818845404</v>
+        <v>0.04034612682130258</v>
       </c>
       <c r="G15">
+        <v>0.6961009520903263</v>
+      </c>
+      <c r="H15">
         <v>0.2668842195185722</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>3.539634565328714</v>
       </c>
-      <c r="I15">
-        <v>0.6961009520903263</v>
-      </c>
       <c r="J15">
-        <v>0.07612010679240608</v>
+        <v>1.697254818845401</v>
       </c>
       <c r="K15">
-        <v>1.697254818845404</v>
+        <v>1.697254818845401</v>
       </c>
       <c r="L15">
-        <v>0.04034612682130259</v>
+        <v>0.04034612682130258</v>
       </c>
       <c r="M15">
         <v>0.05823311680685433</v>
@@ -1397,16 +1409,16 @@
         <v>1.218700266314141</v>
       </c>
       <c r="P15">
-        <v>0.6045736841530375</v>
+        <v>0.6045736841530366</v>
       </c>
       <c r="Q15">
-        <v>0.6045736841530374</v>
+        <v>0.6045736841530365</v>
       </c>
       <c r="R15">
-        <v>0.877743967826129</v>
+        <v>0.8777439678261276</v>
       </c>
       <c r="S15">
-        <v>0.877743967826129</v>
+        <v>0.8777439678261276</v>
       </c>
       <c r="T15">
         <v>1.052723464899454</v>
@@ -1420,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0699858135168</v>
+        <v>5.915868118029351</v>
       </c>
       <c r="D16">
-        <v>1.10150024053574</v>
+        <v>13.45271027033995</v>
       </c>
       <c r="E16">
-        <v>1.036782521065243</v>
+        <v>13.45271027033995</v>
       </c>
       <c r="F16">
-        <v>1.0699858135168</v>
+        <v>0.2179771898230611</v>
       </c>
       <c r="G16">
-        <v>1.077638792365339</v>
+        <v>0.2021918934941328</v>
       </c>
       <c r="H16">
-        <v>1.027538098283375</v>
+        <v>0.2119612389664951</v>
       </c>
       <c r="I16">
-        <v>0.982896253675257</v>
+        <v>5.546928339187059</v>
       </c>
       <c r="J16">
-        <v>1.10150024053574</v>
+        <v>5.915868118029351</v>
       </c>
       <c r="K16">
-        <v>1.0699858135168</v>
+        <v>5.915868118029351</v>
       </c>
       <c r="L16">
-        <v>1.036782521065243</v>
+        <v>0.2179771898230611</v>
       </c>
       <c r="M16">
-        <v>1.069141380800492</v>
+        <v>6.835343730081505</v>
       </c>
       <c r="N16">
-        <v>1.069141380800492</v>
+        <v>6.835343730081505</v>
       </c>
       <c r="O16">
-        <v>1.055273619961453</v>
+        <v>6.40587193311669</v>
       </c>
       <c r="P16">
-        <v>1.069422858372594</v>
+        <v>6.528851859397453</v>
       </c>
       <c r="Q16">
-        <v>1.069422858372594</v>
+        <v>6.528851859397453</v>
       </c>
       <c r="R16">
-        <v>1.069563597158646</v>
+        <v>6.375605924055428</v>
       </c>
       <c r="S16">
-        <v>1.069563597158646</v>
+        <v>6.375605924055428</v>
       </c>
       <c r="T16">
-        <v>1.049390286573626</v>
+        <v>4.257939508306674</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.021942369885155</v>
+        <v>4.280027850865543</v>
       </c>
       <c r="D17">
-        <v>1.375903714389543</v>
+        <v>11.88290908464004</v>
       </c>
       <c r="E17">
-        <v>1.066942454692681</v>
+        <v>11.88290908464004</v>
       </c>
       <c r="F17">
-        <v>1.021942369885155</v>
+        <v>0.4299303955584838</v>
       </c>
       <c r="G17">
-        <v>1.101343739026354</v>
+        <v>0.40348695955514</v>
       </c>
       <c r="H17">
-        <v>0.9865295590684509</v>
+        <v>0.415993485742059</v>
       </c>
       <c r="I17">
-        <v>0.9749976282425542</v>
+        <v>4.071457169965214</v>
       </c>
       <c r="J17">
-        <v>1.375903714389543</v>
+        <v>4.280027850865543</v>
       </c>
       <c r="K17">
-        <v>1.021942369885155</v>
+        <v>4.280027850865543</v>
       </c>
       <c r="L17">
-        <v>1.066942454692681</v>
+        <v>0.4299303955584838</v>
       </c>
       <c r="M17">
-        <v>1.221423084541112</v>
+        <v>6.156419740099262</v>
       </c>
       <c r="N17">
-        <v>1.221423084541112</v>
+        <v>6.156419740099262</v>
       </c>
       <c r="O17">
-        <v>1.143125242716892</v>
+        <v>5.461432216721246</v>
       </c>
       <c r="P17">
-        <v>1.154929512989127</v>
+        <v>5.530955777021355</v>
       </c>
       <c r="Q17">
-        <v>1.154929512989127</v>
+        <v>5.530955777021354</v>
       </c>
       <c r="R17">
-        <v>1.121682727213134</v>
+        <v>5.218223795482402</v>
       </c>
       <c r="S17">
-        <v>1.121682727213134</v>
+        <v>5.218223795482402</v>
       </c>
       <c r="T17">
-        <v>1.087943244217456</v>
+        <v>3.580634157721079</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.536937310549204</v>
+        <v>1.093430314694581</v>
       </c>
       <c r="D18">
-        <v>1.531358887581807</v>
+        <v>8.007216663115999</v>
       </c>
       <c r="E18">
-        <v>1.214099971085248</v>
+        <v>8.007216663115999</v>
       </c>
       <c r="F18">
-        <v>1.536937310549204</v>
+        <v>1.084163844712416</v>
       </c>
       <c r="G18">
-        <v>1.878288793126693</v>
+        <v>0.8803175582323252</v>
       </c>
       <c r="H18">
-        <v>0.7531855683920143</v>
+        <v>1.252333514782543</v>
       </c>
       <c r="I18">
-        <v>1.002860696645876</v>
+        <v>0.851722821743191</v>
       </c>
       <c r="J18">
-        <v>1.531358887581807</v>
+        <v>1.093430314694581</v>
       </c>
       <c r="K18">
-        <v>1.536937310549204</v>
+        <v>1.093430314694581</v>
       </c>
       <c r="L18">
-        <v>1.214099971085248</v>
+        <v>1.084163844712416</v>
       </c>
       <c r="M18">
-        <v>1.372729429333527</v>
+        <v>4.545690253914207</v>
       </c>
       <c r="N18">
-        <v>1.372729429333527</v>
+        <v>4.545690253914207</v>
       </c>
       <c r="O18">
-        <v>1.16621480901969</v>
+        <v>3.314367776523869</v>
       </c>
       <c r="P18">
-        <v>1.427465389738753</v>
+        <v>3.394936940840999</v>
       </c>
       <c r="Q18">
-        <v>1.427465389738753</v>
+        <v>3.394936940840999</v>
       </c>
       <c r="R18">
-        <v>1.454833369941366</v>
+        <v>2.819560284304394</v>
       </c>
       <c r="S18">
-        <v>1.454833369941366</v>
+        <v>2.819560284304394</v>
       </c>
       <c r="T18">
-        <v>1.319455204563474</v>
+        <v>2.194864119546843</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.868968154920511</v>
+      </c>
+      <c r="D19">
+        <v>12.06397749173724</v>
+      </c>
+      <c r="E19">
+        <v>12.06397749173724</v>
+      </c>
+      <c r="F19">
+        <v>0.9414547878421082</v>
+      </c>
+      <c r="G19">
+        <v>0.7934968609322209</v>
+      </c>
+      <c r="H19">
+        <v>2.773267499694476</v>
+      </c>
+      <c r="I19">
+        <v>1.015904935457091</v>
+      </c>
+      <c r="J19">
+        <v>1.868968154920511</v>
+      </c>
+      <c r="K19">
+        <v>1.868968154920511</v>
+      </c>
+      <c r="L19">
+        <v>0.9414547878421082</v>
+      </c>
+      <c r="M19">
+        <v>6.502716139789676</v>
+      </c>
+      <c r="N19">
+        <v>6.502716139789676</v>
+      </c>
+      <c r="O19">
+        <v>4.673779071678815</v>
+      </c>
+      <c r="P19">
+        <v>4.958133478166621</v>
+      </c>
+      <c r="Q19">
+        <v>4.958133478166621</v>
+      </c>
+      <c r="R19">
+        <v>4.185842147355094</v>
+      </c>
+      <c r="S19">
+        <v>4.185842147355094</v>
+      </c>
+      <c r="T19">
+        <v>3.242844955097275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.069985813516804</v>
+      </c>
+      <c r="D20">
+        <v>1.101500240535743</v>
+      </c>
+      <c r="E20">
+        <v>1.101500240535743</v>
+      </c>
+      <c r="F20">
+        <v>1.036782521065242</v>
+      </c>
+      <c r="G20">
+        <v>0.9828962536752571</v>
+      </c>
+      <c r="H20">
+        <v>1.077638792365338</v>
+      </c>
+      <c r="I20">
+        <v>1.027538098283377</v>
+      </c>
+      <c r="J20">
+        <v>1.069985813516804</v>
+      </c>
+      <c r="K20">
+        <v>1.069985813516804</v>
+      </c>
+      <c r="L20">
+        <v>1.036782521065242</v>
+      </c>
+      <c r="M20">
+        <v>1.069141380800493</v>
+      </c>
+      <c r="N20">
+        <v>1.069141380800493</v>
+      </c>
+      <c r="O20">
+        <v>1.055273619961454</v>
+      </c>
+      <c r="P20">
+        <v>1.069422858372596</v>
+      </c>
+      <c r="Q20">
+        <v>1.069422858372597</v>
+      </c>
+      <c r="R20">
+        <v>1.069563597158649</v>
+      </c>
+      <c r="S20">
+        <v>1.069563597158649</v>
+      </c>
+      <c r="T20">
+        <v>1.049390286573627</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.021942369885157</v>
+      </c>
+      <c r="D21">
+        <v>1.375903714389545</v>
+      </c>
+      <c r="E21">
+        <v>1.375903714389545</v>
+      </c>
+      <c r="F21">
+        <v>1.066942454692681</v>
+      </c>
+      <c r="G21">
+        <v>0.974997628242552</v>
+      </c>
+      <c r="H21">
+        <v>1.101343739026354</v>
+      </c>
+      <c r="I21">
+        <v>0.9865295590684533</v>
+      </c>
+      <c r="J21">
+        <v>1.021942369885157</v>
+      </c>
+      <c r="K21">
+        <v>1.021942369885157</v>
+      </c>
+      <c r="L21">
+        <v>1.066942454692681</v>
+      </c>
+      <c r="M21">
+        <v>1.221423084541113</v>
+      </c>
+      <c r="N21">
+        <v>1.221423084541113</v>
+      </c>
+      <c r="O21">
+        <v>1.143125242716893</v>
+      </c>
+      <c r="P21">
+        <v>1.154929512989128</v>
+      </c>
+      <c r="Q21">
+        <v>1.154929512989128</v>
+      </c>
+      <c r="R21">
+        <v>1.121682727213135</v>
+      </c>
+      <c r="S21">
+        <v>1.121682727213135</v>
+      </c>
+      <c r="T21">
+        <v>1.087943244217457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.536937310549211</v>
+      </c>
+      <c r="D22">
+        <v>1.531358887581805</v>
+      </c>
+      <c r="E22">
+        <v>1.531358887581805</v>
+      </c>
+      <c r="F22">
+        <v>1.214099971085245</v>
+      </c>
+      <c r="G22">
+        <v>1.002860696645874</v>
+      </c>
+      <c r="H22">
+        <v>1.878288793126693</v>
+      </c>
+      <c r="I22">
+        <v>0.7531855683920222</v>
+      </c>
+      <c r="J22">
+        <v>1.536937310549211</v>
+      </c>
+      <c r="K22">
+        <v>1.536937310549211</v>
+      </c>
+      <c r="L22">
+        <v>1.214099971085245</v>
+      </c>
+      <c r="M22">
+        <v>1.372729429333525</v>
+      </c>
+      <c r="N22">
+        <v>1.372729429333525</v>
+      </c>
+      <c r="O22">
+        <v>1.166214809019691</v>
+      </c>
+      <c r="P22">
+        <v>1.427465389738754</v>
+      </c>
+      <c r="Q22">
+        <v>1.427465389738754</v>
+      </c>
+      <c r="R22">
+        <v>1.454833369941368</v>
+      </c>
+      <c r="S22">
+        <v>1.454833369941368</v>
+      </c>
+      <c r="T22">
+        <v>1.319455204563475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.7710474086437374</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>3.376785139210925</v>
       </c>
-      <c r="E19">
+      <c r="E23">
+        <v>3.376785139210925</v>
+      </c>
+      <c r="F23">
         <v>0.3463967080220701</v>
       </c>
-      <c r="F19">
+      <c r="G23">
+        <v>1.224448754682695</v>
+      </c>
+      <c r="H23">
+        <v>2.79096644987684</v>
+      </c>
+      <c r="I23">
+        <v>0.4829178147737401</v>
+      </c>
+      <c r="J23">
         <v>0.7710474086437374</v>
       </c>
-      <c r="G19">
-        <v>2.79096644987684</v>
-      </c>
-      <c r="H19">
-        <v>0.4829178147737401</v>
-      </c>
-      <c r="I19">
-        <v>1.224448754682695</v>
-      </c>
-      <c r="J19">
-        <v>3.376785139210925</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>0.7710474086437374</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>0.3463967080220701</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.861590923616498</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.861590923616498</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.402033220668912</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.498076418625578</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.498076418625577</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.316319166130117</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.316319166130117</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.498760379201668</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/ShearF-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW03.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.418544780432685</v>
+        <v>1.103131782726154</v>
       </c>
       <c r="D3">
-        <v>1.860651811933152</v>
+        <v>14.55149167597298</v>
       </c>
       <c r="E3">
-        <v>1.860651811933152</v>
+        <v>14.55149167597298</v>
       </c>
       <c r="F3">
-        <v>1.00709299985256</v>
+        <v>0.85228720937766</v>
       </c>
       <c r="G3">
-        <v>0.9347681516241226</v>
+        <v>0.7583933645279194</v>
       </c>
       <c r="H3">
-        <v>1.022537689336039</v>
+        <v>0.9225711430150583</v>
       </c>
       <c r="I3">
-        <v>1.279287739271088</v>
+        <v>1.212323787818476</v>
       </c>
       <c r="J3">
-        <v>1.418544780432685</v>
+        <v>1.103131782726154</v>
       </c>
       <c r="K3">
-        <v>1.418544780432685</v>
+        <v>1.103131782726154</v>
       </c>
       <c r="L3">
-        <v>1.00709299985256</v>
+        <v>0.85228720937766</v>
       </c>
       <c r="M3">
-        <v>1.433872405892856</v>
+        <v>7.701889442675322</v>
       </c>
       <c r="N3">
-        <v>1.433872405892856</v>
+        <v>7.701889442675322</v>
       </c>
       <c r="O3">
-        <v>1.3823441836856</v>
+        <v>5.538700891056373</v>
       </c>
       <c r="P3">
-        <v>1.428763197406132</v>
+        <v>5.502303556025599</v>
       </c>
       <c r="Q3">
-        <v>1.428763197406132</v>
+        <v>5.502303556025598</v>
       </c>
       <c r="R3">
-        <v>1.426208593162771</v>
+        <v>4.402510612700738</v>
       </c>
       <c r="S3">
-        <v>1.426208593162771</v>
+        <v>4.402510612700738</v>
       </c>
       <c r="T3">
-        <v>1.253813862074941</v>
+        <v>3.233366493906375</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.614038120730488</v>
+        <v>0.9804785078685428</v>
       </c>
       <c r="D4">
-        <v>2.990248636793881</v>
+        <v>11.34769637495021</v>
       </c>
       <c r="E4">
-        <v>2.990248636793881</v>
+        <v>11.34769637495021</v>
       </c>
       <c r="F4">
-        <v>1.198754076655346</v>
+        <v>0.8564430537663023</v>
       </c>
       <c r="G4">
-        <v>0.832651845725387</v>
+        <v>0.784597868699448</v>
       </c>
       <c r="H4">
-        <v>1.453259461500786</v>
+        <v>0.8782643911831274</v>
       </c>
       <c r="I4">
-        <v>1.681010733892708</v>
+        <v>1.160312552378501</v>
       </c>
       <c r="J4">
-        <v>1.614038120730488</v>
+        <v>0.9804785078685428</v>
       </c>
       <c r="K4">
-        <v>1.614038120730488</v>
+        <v>0.9804785078685428</v>
       </c>
       <c r="L4">
-        <v>1.198754076655346</v>
+        <v>0.8564430537663023</v>
       </c>
       <c r="M4">
-        <v>2.094501356724613</v>
+        <v>6.102069714358254</v>
       </c>
       <c r="N4">
-        <v>2.094501356724613</v>
+        <v>6.102069714358254</v>
       </c>
       <c r="O4">
-        <v>1.956671149113978</v>
+        <v>4.45481732703167</v>
       </c>
       <c r="P4">
-        <v>1.934346944726571</v>
+        <v>4.39487264552835</v>
       </c>
       <c r="Q4">
-        <v>1.934346944726572</v>
+        <v>4.39487264552835</v>
       </c>
       <c r="R4">
-        <v>1.854269738727551</v>
+        <v>3.541274111113399</v>
       </c>
       <c r="S4">
-        <v>1.854269738727551</v>
+        <v>3.541274111113399</v>
       </c>
       <c r="T4">
-        <v>1.628327145883099</v>
+        <v>2.667965458141021</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.135331206369314</v>
+        <v>1.71736945905062</v>
       </c>
       <c r="D5">
-        <v>2.867277901681242</v>
+        <v>25.14743046184896</v>
       </c>
       <c r="E5">
-        <v>2.867277901681242</v>
+        <v>25.14743046184896</v>
       </c>
       <c r="F5">
-        <v>0.2559661095282176</v>
+        <v>0.2928303320699734</v>
       </c>
       <c r="G5">
-        <v>0.9662870797819471</v>
+        <v>0.4189377833105663</v>
       </c>
       <c r="H5">
-        <v>4.329996223957933</v>
+        <v>0.3217942656257686</v>
       </c>
       <c r="I5">
-        <v>1.600277093300255</v>
+        <v>1.257590219080323</v>
       </c>
       <c r="J5">
-        <v>4.135331206369314</v>
+        <v>1.71736945905062</v>
       </c>
       <c r="K5">
-        <v>4.135331206369314</v>
+        <v>1.71736945905062</v>
       </c>
       <c r="L5">
-        <v>0.2559661095282176</v>
+        <v>0.2928303320699734</v>
       </c>
       <c r="M5">
-        <v>1.56162200560473</v>
+        <v>12.72013039695946</v>
       </c>
       <c r="N5">
-        <v>1.56162200560473</v>
+        <v>12.72013039695946</v>
       </c>
       <c r="O5">
-        <v>1.574507034836572</v>
+        <v>8.89928367099975</v>
       </c>
       <c r="P5">
-        <v>2.419525072526258</v>
+        <v>9.052543417656516</v>
       </c>
       <c r="Q5">
-        <v>2.419525072526258</v>
+        <v>9.052543417656516</v>
       </c>
       <c r="R5">
-        <v>2.848476605987022</v>
+        <v>7.218749928005042</v>
       </c>
       <c r="S5">
-        <v>2.848476605987022</v>
+        <v>7.218749928005042</v>
       </c>
       <c r="T5">
-        <v>2.359189269103152</v>
+        <v>4.859325420164367</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7.935375613147194</v>
+        <v>6.192254602835338</v>
       </c>
       <c r="D6">
-        <v>19.85558231626316</v>
+        <v>41.28943337190472</v>
       </c>
       <c r="E6">
-        <v>19.85558231626316</v>
+        <v>41.28943337190472</v>
       </c>
       <c r="F6">
-        <v>2.610193499615356</v>
+        <v>0.1037917757096591</v>
       </c>
       <c r="G6">
-        <v>0.08999357144096055</v>
+        <v>0.626069177430045</v>
       </c>
       <c r="H6">
-        <v>0.05394110470409223</v>
+        <v>0.2434734761134097</v>
       </c>
       <c r="I6">
-        <v>2.335698284979014</v>
+        <v>1.585308084655966</v>
       </c>
       <c r="J6">
-        <v>7.935375613147194</v>
+        <v>6.192254602835338</v>
       </c>
       <c r="K6">
-        <v>7.935375613147194</v>
+        <v>6.192254602835338</v>
       </c>
       <c r="L6">
-        <v>2.610193499615356</v>
+        <v>0.1037917757096591</v>
       </c>
       <c r="M6">
-        <v>11.23288790793926</v>
+        <v>20.69661257380719</v>
       </c>
       <c r="N6">
-        <v>11.23288790793926</v>
+        <v>20.69661257380719</v>
       </c>
       <c r="O6">
-        <v>8.267158033619177</v>
+        <v>14.32617774409012</v>
       </c>
       <c r="P6">
-        <v>10.13371714300857</v>
+        <v>15.86182658348324</v>
       </c>
       <c r="Q6">
-        <v>10.13371714300857</v>
+        <v>15.86182658348324</v>
       </c>
       <c r="R6">
-        <v>9.584131760543226</v>
+        <v>13.44443358832127</v>
       </c>
       <c r="S6">
-        <v>9.584131760543226</v>
+        <v>13.44443358832127</v>
       </c>
       <c r="T6">
-        <v>5.480130731691631</v>
+        <v>8.340055081441523</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.088360461186095</v>
+        <v>4.288698011112769</v>
       </c>
       <c r="D7">
-        <v>1.213261964864897</v>
+        <v>0.9127955927541307</v>
       </c>
       <c r="E7">
-        <v>1.213261964864897</v>
+        <v>0.9127955927541307</v>
       </c>
       <c r="F7">
-        <v>1.022059969924341</v>
+        <v>3.974242780157517</v>
       </c>
       <c r="G7">
-        <v>0.9794617712348164</v>
+        <v>-0.008110568697838343</v>
       </c>
       <c r="H7">
-        <v>1.052806616945357</v>
+        <v>11.9356021481033</v>
       </c>
       <c r="I7">
-        <v>1.01008173199174</v>
+        <v>0.00302784487249666</v>
       </c>
       <c r="J7">
-        <v>1.088360461186095</v>
+        <v>4.288698011112769</v>
       </c>
       <c r="K7">
-        <v>1.088360461186095</v>
+        <v>4.288698011112769</v>
       </c>
       <c r="L7">
-        <v>1.022059969924341</v>
+        <v>3.974242780157517</v>
       </c>
       <c r="M7">
-        <v>1.117660967394619</v>
+        <v>2.443519186455823</v>
       </c>
       <c r="N7">
-        <v>1.117660967394619</v>
+        <v>2.443519186455823</v>
       </c>
       <c r="O7">
-        <v>1.081801222260325</v>
+        <v>1.630022072594715</v>
       </c>
       <c r="P7">
-        <v>1.107894131991777</v>
+        <v>3.058578794674805</v>
       </c>
       <c r="Q7">
-        <v>1.107894131991777</v>
+        <v>3.058578794674805</v>
       </c>
       <c r="R7">
-        <v>1.103010714290357</v>
+        <v>3.366108598784296</v>
       </c>
       <c r="S7">
-        <v>1.103010714290357</v>
+        <v>3.366108598784296</v>
       </c>
       <c r="T7">
-        <v>1.061005419357874</v>
+        <v>3.517709301383729</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.156039200881489</v>
+        <v>4.489662963419237</v>
       </c>
       <c r="D8">
-        <v>1.433083181673554</v>
+        <v>1.386823423688272</v>
       </c>
       <c r="E8">
-        <v>1.433083181673554</v>
+        <v>1.386823423688272</v>
       </c>
       <c r="F8">
-        <v>1.019674424197587</v>
+        <v>3.950702620497632</v>
       </c>
       <c r="G8">
-        <v>0.9767335214276454</v>
+        <v>-0.008058138050511528</v>
       </c>
       <c r="H8">
-        <v>1.051873176257994</v>
+        <v>11.87494266293016</v>
       </c>
       <c r="I8">
-        <v>1.011162828160107</v>
+        <v>0.002904990094898592</v>
       </c>
       <c r="J8">
-        <v>1.156039200881489</v>
+        <v>4.489662963419237</v>
       </c>
       <c r="K8">
-        <v>1.156039200881489</v>
+        <v>4.489662963419237</v>
       </c>
       <c r="L8">
-        <v>1.019674424197587</v>
+        <v>3.950702620497632</v>
       </c>
       <c r="M8">
-        <v>1.226378802935571</v>
+        <v>2.668763022092952</v>
       </c>
       <c r="N8">
-        <v>1.226378802935571</v>
+        <v>2.668763022092952</v>
       </c>
       <c r="O8">
-        <v>1.154640144677083</v>
+        <v>1.780143678093601</v>
       </c>
       <c r="P8">
-        <v>1.202932268917543</v>
+        <v>3.275729669201713</v>
       </c>
       <c r="Q8">
-        <v>1.202932268917543</v>
+        <v>3.275729669201713</v>
       </c>
       <c r="R8">
-        <v>1.19120900190853</v>
+        <v>3.579212992756094</v>
       </c>
       <c r="S8">
-        <v>1.19120900190853</v>
+        <v>3.579212992756094</v>
       </c>
       <c r="T8">
-        <v>1.108094388766396</v>
+        <v>3.616163087096616</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.373907913249817</v>
+        <v>4.506410006764082</v>
       </c>
       <c r="D9">
-        <v>1.66368559927018</v>
+        <v>2.281310025147542</v>
       </c>
       <c r="E9">
-        <v>1.66368559927018</v>
+        <v>2.281310025147542</v>
       </c>
       <c r="F9">
-        <v>1.024775802828273</v>
+        <v>3.932693924365405</v>
       </c>
       <c r="G9">
-        <v>0.9737956176905396</v>
+        <v>-0.007990362394241517</v>
       </c>
       <c r="H9">
-        <v>1.005653107482082</v>
+        <v>11.84078634461055</v>
       </c>
       <c r="I9">
-        <v>0.9622531479041374</v>
+        <v>0.002803773951392699</v>
       </c>
       <c r="J9">
-        <v>1.373907913249817</v>
+        <v>4.506410006764082</v>
       </c>
       <c r="K9">
-        <v>1.373907913249817</v>
+        <v>4.506410006764082</v>
       </c>
       <c r="L9">
-        <v>1.024775802828273</v>
+        <v>3.932693924365405</v>
       </c>
       <c r="M9">
-        <v>1.344230701049226</v>
+        <v>3.107001974756474</v>
       </c>
       <c r="N9">
-        <v>1.344230701049226</v>
+        <v>3.107001974756474</v>
       </c>
       <c r="O9">
-        <v>1.216904850000863</v>
+        <v>2.07226924115478</v>
       </c>
       <c r="P9">
-        <v>1.35412310511609</v>
+        <v>3.573471318759009</v>
       </c>
       <c r="Q9">
-        <v>1.35412310511609</v>
+        <v>3.573471318759009</v>
       </c>
       <c r="R9">
-        <v>1.359069307149522</v>
+        <v>3.806705990760277</v>
       </c>
       <c r="S9">
-        <v>1.359069307149522</v>
+        <v>3.806705990760277</v>
       </c>
       <c r="T9">
-        <v>1.167345198070838</v>
+        <v>3.759335618740787</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.707615870072982</v>
+        <v>5.544340862885626</v>
       </c>
       <c r="D10">
-        <v>1.688315945849754</v>
+        <v>4.033377565863256</v>
       </c>
       <c r="E10">
-        <v>1.688315945849754</v>
+        <v>4.033377565863256</v>
       </c>
       <c r="F10">
-        <v>1.038800848853574</v>
+        <v>3.872916799942909</v>
       </c>
       <c r="G10">
-        <v>0.9717261062944532</v>
+        <v>-0.007845316481887049</v>
       </c>
       <c r="H10">
-        <v>0.830882227038942</v>
+        <v>11.68427313173697</v>
       </c>
       <c r="I10">
-        <v>0.9222055978286278</v>
+        <v>0.002569921551721721</v>
       </c>
       <c r="J10">
-        <v>1.707615870072982</v>
+        <v>5.544340862885626</v>
       </c>
       <c r="K10">
-        <v>1.707615870072982</v>
+        <v>5.544340862885626</v>
       </c>
       <c r="L10">
-        <v>1.038800848853574</v>
+        <v>3.872916799942909</v>
       </c>
       <c r="M10">
-        <v>1.363558397351664</v>
+        <v>3.953147182903082</v>
       </c>
       <c r="N10">
-        <v>1.363558397351664</v>
+        <v>3.953147182903082</v>
       </c>
       <c r="O10">
-        <v>1.216440797510652</v>
+        <v>2.636288095785962</v>
       </c>
       <c r="P10">
-        <v>1.478244221592103</v>
+        <v>4.483545076230597</v>
       </c>
       <c r="Q10">
-        <v>1.478244221592103</v>
+        <v>4.483545076230597</v>
       </c>
       <c r="R10">
-        <v>1.535587133712323</v>
+        <v>4.748744022894354</v>
       </c>
       <c r="S10">
-        <v>1.535587133712323</v>
+        <v>4.748744022894354</v>
       </c>
       <c r="T10">
-        <v>1.193257765989722</v>
+        <v>4.188272160916432</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.75498545436585</v>
+        <v>1.339531106037121</v>
       </c>
       <c r="D11">
-        <v>3.689016962281872</v>
+        <v>1.725075798310838</v>
       </c>
       <c r="E11">
-        <v>3.689016962281872</v>
+        <v>1.725075798310838</v>
       </c>
       <c r="F11">
-        <v>0.8341444503765274</v>
+        <v>1.046891277149952</v>
       </c>
       <c r="G11">
-        <v>0.8237587541188875</v>
+        <v>0.9361689194299634</v>
       </c>
       <c r="H11">
-        <v>2.217880479585305</v>
+        <v>1.029478878444288</v>
       </c>
       <c r="I11">
-        <v>0.6734479937056892</v>
+        <v>1.263458442935324</v>
       </c>
       <c r="J11">
-        <v>2.75498545436585</v>
+        <v>1.339531106037121</v>
       </c>
       <c r="K11">
-        <v>2.75498545436585</v>
+        <v>1.339531106037121</v>
       </c>
       <c r="L11">
-        <v>0.8341444503765274</v>
+        <v>1.046891277149952</v>
       </c>
       <c r="M11">
-        <v>2.2615807063292</v>
+        <v>1.385983537730395</v>
       </c>
       <c r="N11">
-        <v>2.2615807063292</v>
+        <v>1.385983537730395</v>
       </c>
       <c r="O11">
-        <v>1.732203135454697</v>
+        <v>1.345141839465371</v>
       </c>
       <c r="P11">
-        <v>2.42604895567475</v>
+        <v>1.370499393832637</v>
       </c>
       <c r="Q11">
-        <v>2.42604895567475</v>
+        <v>1.370499393832637</v>
       </c>
       <c r="R11">
-        <v>2.508283080347525</v>
+        <v>1.362757321883758</v>
       </c>
       <c r="S11">
-        <v>2.508283080347525</v>
+        <v>1.362757321883758</v>
       </c>
       <c r="T11">
-        <v>1.832205682405689</v>
+        <v>1.223434070384581</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>5.66284010751539</v>
+        <v>1.211584785268331</v>
       </c>
       <c r="D12">
-        <v>0.001299818629037552</v>
+        <v>1.44435267346031</v>
       </c>
       <c r="E12">
-        <v>0.001299818629037552</v>
+        <v>1.44435267346031</v>
       </c>
       <c r="F12">
-        <v>-0.001364000895071943</v>
+        <v>1.034562755188717</v>
       </c>
       <c r="G12">
-        <v>1.199397461479271</v>
+        <v>0.9585768240434819</v>
       </c>
       <c r="H12">
-        <v>0.0009333249709170005</v>
+        <v>1.109148297468783</v>
       </c>
       <c r="I12">
-        <v>1.442004732701281</v>
+        <v>1.132074899550681</v>
       </c>
       <c r="J12">
-        <v>5.66284010751539</v>
+        <v>1.211584785268331</v>
       </c>
       <c r="K12">
-        <v>5.66284010751539</v>
+        <v>1.211584785268331</v>
       </c>
       <c r="L12">
-        <v>-0.001364000895071943</v>
+        <v>1.034562755188717</v>
       </c>
       <c r="M12">
-        <v>-3.20911330171955E-05</v>
+        <v>1.239457714324514</v>
       </c>
       <c r="N12">
-        <v>-3.20911330171955E-05</v>
+        <v>1.239457714324514</v>
       </c>
       <c r="O12">
-        <v>0.4806468501450822</v>
+        <v>1.203663442733236</v>
       </c>
       <c r="P12">
-        <v>1.887591975083118</v>
+        <v>1.230166737972453</v>
       </c>
       <c r="Q12">
-        <v>1.887591975083118</v>
+        <v>1.230166737972453</v>
       </c>
       <c r="R12">
-        <v>2.831404008191186</v>
+        <v>1.225521249796422</v>
       </c>
       <c r="S12">
-        <v>2.831404008191186</v>
+        <v>1.225521249796422</v>
       </c>
       <c r="T12">
-        <v>1.384185240733471</v>
+        <v>1.148383372496717</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>-0.003057026860160005</v>
+        <v>2.243955460986288</v>
       </c>
       <c r="D13">
-        <v>0.07655865010261245</v>
+        <v>1.603662348671274</v>
       </c>
       <c r="E13">
-        <v>0.07655865010261245</v>
+        <v>1.603662348671274</v>
       </c>
       <c r="F13">
-        <v>3.85831963452449</v>
+        <v>0.2799065105588599</v>
       </c>
       <c r="G13">
-        <v>1.104380602830818</v>
+        <v>0.5712015014199009</v>
       </c>
       <c r="H13">
-        <v>0.005684776780114497</v>
+        <v>0.4212446907288238</v>
       </c>
       <c r="I13">
-        <v>0.002382954125453752</v>
+        <v>1.156034948331447</v>
       </c>
       <c r="J13">
-        <v>-0.003057026860160005</v>
+        <v>2.243955460986288</v>
       </c>
       <c r="K13">
-        <v>-0.003057026860160005</v>
+        <v>2.243955460986288</v>
       </c>
       <c r="L13">
-        <v>3.85831963452449</v>
+        <v>0.2799065105588599</v>
       </c>
       <c r="M13">
-        <v>1.967439142313551</v>
+        <v>0.9417844296150669</v>
       </c>
       <c r="N13">
-        <v>1.967439142313551</v>
+        <v>0.9417844296150669</v>
       </c>
       <c r="O13">
-        <v>1.312420412917519</v>
+        <v>1.013201269187194</v>
       </c>
       <c r="P13">
-        <v>1.310607085922314</v>
+        <v>1.375841440072141</v>
       </c>
       <c r="Q13">
-        <v>1.310607085922314</v>
+        <v>1.375841440072141</v>
       </c>
       <c r="R13">
-        <v>0.9821910577266957</v>
+        <v>1.592869945300678</v>
       </c>
       <c r="S13">
-        <v>0.9821910577266957</v>
+        <v>1.592869945300678</v>
       </c>
       <c r="T13">
-        <v>0.8407115985838881</v>
+        <v>1.046000910116099</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.003429442487536849</v>
+        <v>6.310642836869088</v>
       </c>
       <c r="D14">
-        <v>0.003550294423994047</v>
+        <v>11.64186789010269</v>
       </c>
       <c r="E14">
-        <v>0.003550294423994047</v>
+        <v>11.64186789010269</v>
       </c>
       <c r="F14">
-        <v>-0.001502850586985303</v>
+        <v>0.1442100095912315</v>
       </c>
       <c r="G14">
-        <v>3.329147908393139</v>
+        <v>1.245497668628855</v>
       </c>
       <c r="H14">
-        <v>0.4085801478221999</v>
+        <v>0.1306862524392954</v>
       </c>
       <c r="I14">
-        <v>-0.001791996581089031</v>
+        <v>1.56495566782552</v>
       </c>
       <c r="J14">
-        <v>0.003429442487536849</v>
+        <v>6.310642836869088</v>
       </c>
       <c r="K14">
-        <v>0.003429442487536849</v>
+        <v>6.310642836869088</v>
       </c>
       <c r="L14">
-        <v>-0.001502850586985303</v>
+        <v>0.1442100095912315</v>
       </c>
       <c r="M14">
-        <v>0.001023721918504372</v>
+        <v>5.893038949846963</v>
       </c>
       <c r="N14">
-        <v>0.001023721918504372</v>
+        <v>5.893038949846963</v>
       </c>
       <c r="O14">
-        <v>8.514908530657113E-05</v>
+        <v>4.450344522506482</v>
       </c>
       <c r="P14">
-        <v>0.001825628774848531</v>
+        <v>6.032240245521005</v>
       </c>
       <c r="Q14">
-        <v>0.001825628774848531</v>
+        <v>6.032240245521003</v>
       </c>
       <c r="R14">
-        <v>0.002226582203020611</v>
+        <v>6.101840893358025</v>
       </c>
       <c r="S14">
-        <v>0.002226582203020611</v>
+        <v>6.101840893358025</v>
       </c>
       <c r="T14">
-        <v>0.623568824326466</v>
+        <v>3.50631005424278</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.697254818845401</v>
+        <v>1.418544780432685</v>
       </c>
       <c r="D15">
-        <v>0.07612010679240608</v>
+        <v>1.860651811933152</v>
       </c>
       <c r="E15">
-        <v>0.07612010679240608</v>
+        <v>1.860651811933152</v>
       </c>
       <c r="F15">
-        <v>0.04034612682130258</v>
+        <v>1.00709299985256</v>
       </c>
       <c r="G15">
-        <v>0.6961009520903263</v>
+        <v>0.9347681516241226</v>
       </c>
       <c r="H15">
-        <v>0.2668842195185722</v>
+        <v>1.022537689336039</v>
       </c>
       <c r="I15">
-        <v>3.539634565328714</v>
+        <v>1.279287739271088</v>
       </c>
       <c r="J15">
-        <v>1.697254818845401</v>
+        <v>1.418544780432685</v>
       </c>
       <c r="K15">
-        <v>1.697254818845401</v>
+        <v>1.418544780432685</v>
       </c>
       <c r="L15">
-        <v>0.04034612682130258</v>
+        <v>1.00709299985256</v>
       </c>
       <c r="M15">
-        <v>0.05823311680685433</v>
+        <v>1.433872405892856</v>
       </c>
       <c r="N15">
-        <v>0.05823311680685433</v>
+        <v>1.433872405892856</v>
       </c>
       <c r="O15">
-        <v>1.218700266314141</v>
+        <v>1.3823441836856</v>
       </c>
       <c r="P15">
-        <v>0.6045736841530366</v>
+        <v>1.428763197406132</v>
       </c>
       <c r="Q15">
-        <v>0.6045736841530365</v>
+        <v>1.428763197406132</v>
       </c>
       <c r="R15">
-        <v>0.8777439678261276</v>
+        <v>1.426208593162771</v>
       </c>
       <c r="S15">
-        <v>0.8777439678261276</v>
+        <v>1.426208593162771</v>
       </c>
       <c r="T15">
-        <v>1.052723464899454</v>
+        <v>1.253813862074941</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>5.915868118029351</v>
+        <v>1.614038120730488</v>
       </c>
       <c r="D16">
-        <v>13.45271027033995</v>
+        <v>2.990248636793881</v>
       </c>
       <c r="E16">
-        <v>13.45271027033995</v>
+        <v>2.990248636793881</v>
       </c>
       <c r="F16">
-        <v>0.2179771898230611</v>
+        <v>1.198754076655346</v>
       </c>
       <c r="G16">
-        <v>0.2021918934941328</v>
+        <v>0.832651845725387</v>
       </c>
       <c r="H16">
-        <v>0.2119612389664951</v>
+        <v>1.453259461500786</v>
       </c>
       <c r="I16">
-        <v>5.546928339187059</v>
+        <v>1.681010733892708</v>
       </c>
       <c r="J16">
-        <v>5.915868118029351</v>
+        <v>1.614038120730488</v>
       </c>
       <c r="K16">
-        <v>5.915868118029351</v>
+        <v>1.614038120730488</v>
       </c>
       <c r="L16">
-        <v>0.2179771898230611</v>
+        <v>1.198754076655346</v>
       </c>
       <c r="M16">
-        <v>6.835343730081505</v>
+        <v>2.094501356724613</v>
       </c>
       <c r="N16">
-        <v>6.835343730081505</v>
+        <v>2.094501356724613</v>
       </c>
       <c r="O16">
-        <v>6.40587193311669</v>
+        <v>1.956671149113978</v>
       </c>
       <c r="P16">
-        <v>6.528851859397453</v>
+        <v>1.934346944726571</v>
       </c>
       <c r="Q16">
-        <v>6.528851859397453</v>
+        <v>1.934346944726572</v>
       </c>
       <c r="R16">
-        <v>6.375605924055428</v>
+        <v>1.854269738727551</v>
       </c>
       <c r="S16">
-        <v>6.375605924055428</v>
+        <v>1.854269738727551</v>
       </c>
       <c r="T16">
-        <v>4.257939508306674</v>
+        <v>1.628327145883099</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>4.280027850865543</v>
+        <v>4.135331206369314</v>
       </c>
       <c r="D17">
-        <v>11.88290908464004</v>
+        <v>2.867277901681242</v>
       </c>
       <c r="E17">
-        <v>11.88290908464004</v>
+        <v>2.867277901681242</v>
       </c>
       <c r="F17">
-        <v>0.4299303955584838</v>
+        <v>0.2559661095282176</v>
       </c>
       <c r="G17">
-        <v>0.40348695955514</v>
+        <v>0.9662870797819471</v>
       </c>
       <c r="H17">
-        <v>0.415993485742059</v>
+        <v>4.329996223957933</v>
       </c>
       <c r="I17">
-        <v>4.071457169965214</v>
+        <v>1.600277093300255</v>
       </c>
       <c r="J17">
-        <v>4.280027850865543</v>
+        <v>4.135331206369314</v>
       </c>
       <c r="K17">
-        <v>4.280027850865543</v>
+        <v>4.135331206369314</v>
       </c>
       <c r="L17">
-        <v>0.4299303955584838</v>
+        <v>0.2559661095282176</v>
       </c>
       <c r="M17">
-        <v>6.156419740099262</v>
+        <v>1.56162200560473</v>
       </c>
       <c r="N17">
-        <v>6.156419740099262</v>
+        <v>1.56162200560473</v>
       </c>
       <c r="O17">
-        <v>5.461432216721246</v>
+        <v>1.574507034836572</v>
       </c>
       <c r="P17">
-        <v>5.530955777021355</v>
+        <v>2.419525072526258</v>
       </c>
       <c r="Q17">
-        <v>5.530955777021354</v>
+        <v>2.419525072526258</v>
       </c>
       <c r="R17">
-        <v>5.218223795482402</v>
+        <v>2.848476605987022</v>
       </c>
       <c r="S17">
-        <v>5.218223795482402</v>
+        <v>2.848476605987022</v>
       </c>
       <c r="T17">
-        <v>3.580634157721079</v>
+        <v>2.359189269103152</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.093430314694581</v>
+        <v>7.935375613147194</v>
       </c>
       <c r="D18">
-        <v>8.007216663115999</v>
+        <v>19.85558231626316</v>
       </c>
       <c r="E18">
-        <v>8.007216663115999</v>
+        <v>19.85558231626316</v>
       </c>
       <c r="F18">
-        <v>1.084163844712416</v>
+        <v>2.610193499615356</v>
       </c>
       <c r="G18">
-        <v>0.8803175582323252</v>
+        <v>0.08999357144096055</v>
       </c>
       <c r="H18">
-        <v>1.252333514782543</v>
+        <v>0.05394110470409223</v>
       </c>
       <c r="I18">
-        <v>0.851722821743191</v>
+        <v>2.335698284979014</v>
       </c>
       <c r="J18">
-        <v>1.093430314694581</v>
+        <v>7.935375613147194</v>
       </c>
       <c r="K18">
-        <v>1.093430314694581</v>
+        <v>7.935375613147194</v>
       </c>
       <c r="L18">
-        <v>1.084163844712416</v>
+        <v>2.610193499615356</v>
       </c>
       <c r="M18">
-        <v>4.545690253914207</v>
+        <v>11.23288790793926</v>
       </c>
       <c r="N18">
-        <v>4.545690253914207</v>
+        <v>11.23288790793926</v>
       </c>
       <c r="O18">
-        <v>3.314367776523869</v>
+        <v>8.267158033619177</v>
       </c>
       <c r="P18">
-        <v>3.394936940840999</v>
+        <v>10.13371714300857</v>
       </c>
       <c r="Q18">
-        <v>3.394936940840999</v>
+        <v>10.13371714300857</v>
       </c>
       <c r="R18">
-        <v>2.819560284304394</v>
+        <v>9.584131760543226</v>
       </c>
       <c r="S18">
-        <v>2.819560284304394</v>
+        <v>9.584131760543226</v>
       </c>
       <c r="T18">
-        <v>2.194864119546843</v>
+        <v>5.480130731691631</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.868968154920511</v>
+        <v>1.088360461186095</v>
       </c>
       <c r="D19">
-        <v>12.06397749173724</v>
+        <v>1.213261964864897</v>
       </c>
       <c r="E19">
-        <v>12.06397749173724</v>
+        <v>1.213261964864897</v>
       </c>
       <c r="F19">
-        <v>0.9414547878421082</v>
+        <v>1.022059969924341</v>
       </c>
       <c r="G19">
-        <v>0.7934968609322209</v>
+        <v>0.9794617712348164</v>
       </c>
       <c r="H19">
-        <v>2.773267499694476</v>
+        <v>1.052806616945357</v>
       </c>
       <c r="I19">
-        <v>1.015904935457091</v>
+        <v>1.01008173199174</v>
       </c>
       <c r="J19">
-        <v>1.868968154920511</v>
+        <v>1.088360461186095</v>
       </c>
       <c r="K19">
-        <v>1.868968154920511</v>
+        <v>1.088360461186095</v>
       </c>
       <c r="L19">
-        <v>0.9414547878421082</v>
+        <v>1.022059969924341</v>
       </c>
       <c r="M19">
-        <v>6.502716139789676</v>
+        <v>1.117660967394619</v>
       </c>
       <c r="N19">
-        <v>6.502716139789676</v>
+        <v>1.117660967394619</v>
       </c>
       <c r="O19">
-        <v>4.673779071678815</v>
+        <v>1.081801222260325</v>
       </c>
       <c r="P19">
-        <v>4.958133478166621</v>
+        <v>1.107894131991777</v>
       </c>
       <c r="Q19">
-        <v>4.958133478166621</v>
+        <v>1.107894131991777</v>
       </c>
       <c r="R19">
-        <v>4.185842147355094</v>
+        <v>1.103010714290357</v>
       </c>
       <c r="S19">
-        <v>4.185842147355094</v>
+        <v>1.103010714290357</v>
       </c>
       <c r="T19">
-        <v>3.242844955097275</v>
+        <v>1.061005419357874</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.069985813516804</v>
+        <v>1.156039200881489</v>
       </c>
       <c r="D20">
-        <v>1.101500240535743</v>
+        <v>1.433083181673554</v>
       </c>
       <c r="E20">
-        <v>1.101500240535743</v>
+        <v>1.433083181673554</v>
       </c>
       <c r="F20">
-        <v>1.036782521065242</v>
+        <v>1.019674424197587</v>
       </c>
       <c r="G20">
-        <v>0.9828962536752571</v>
+        <v>0.9767335214276454</v>
       </c>
       <c r="H20">
-        <v>1.077638792365338</v>
+        <v>1.051873176257994</v>
       </c>
       <c r="I20">
-        <v>1.027538098283377</v>
+        <v>1.011162828160107</v>
       </c>
       <c r="J20">
-        <v>1.069985813516804</v>
+        <v>1.156039200881489</v>
       </c>
       <c r="K20">
-        <v>1.069985813516804</v>
+        <v>1.156039200881489</v>
       </c>
       <c r="L20">
-        <v>1.036782521065242</v>
+        <v>1.019674424197587</v>
       </c>
       <c r="M20">
-        <v>1.069141380800493</v>
+        <v>1.226378802935571</v>
       </c>
       <c r="N20">
-        <v>1.069141380800493</v>
+        <v>1.226378802935571</v>
       </c>
       <c r="O20">
-        <v>1.055273619961454</v>
+        <v>1.154640144677083</v>
       </c>
       <c r="P20">
-        <v>1.069422858372596</v>
+        <v>1.202932268917543</v>
       </c>
       <c r="Q20">
-        <v>1.069422858372597</v>
+        <v>1.202932268917543</v>
       </c>
       <c r="R20">
-        <v>1.069563597158649</v>
+        <v>1.19120900190853</v>
       </c>
       <c r="S20">
-        <v>1.069563597158649</v>
+        <v>1.19120900190853</v>
       </c>
       <c r="T20">
-        <v>1.049390286573627</v>
+        <v>1.108094388766396</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.021942369885157</v>
+        <v>1.373907913249817</v>
       </c>
       <c r="D21">
-        <v>1.375903714389545</v>
+        <v>1.66368559927018</v>
       </c>
       <c r="E21">
-        <v>1.375903714389545</v>
+        <v>1.66368559927018</v>
       </c>
       <c r="F21">
-        <v>1.066942454692681</v>
+        <v>1.024775802828273</v>
       </c>
       <c r="G21">
-        <v>0.974997628242552</v>
+        <v>0.9737956176905396</v>
       </c>
       <c r="H21">
-        <v>1.101343739026354</v>
+        <v>1.005653107482082</v>
       </c>
       <c r="I21">
-        <v>0.9865295590684533</v>
+        <v>0.9622531479041374</v>
       </c>
       <c r="J21">
-        <v>1.021942369885157</v>
+        <v>1.373907913249817</v>
       </c>
       <c r="K21">
-        <v>1.021942369885157</v>
+        <v>1.373907913249817</v>
       </c>
       <c r="L21">
-        <v>1.066942454692681</v>
+        <v>1.024775802828273</v>
       </c>
       <c r="M21">
-        <v>1.221423084541113</v>
+        <v>1.344230701049226</v>
       </c>
       <c r="N21">
-        <v>1.221423084541113</v>
+        <v>1.344230701049226</v>
       </c>
       <c r="O21">
-        <v>1.143125242716893</v>
+        <v>1.216904850000863</v>
       </c>
       <c r="P21">
-        <v>1.154929512989128</v>
+        <v>1.35412310511609</v>
       </c>
       <c r="Q21">
-        <v>1.154929512989128</v>
+        <v>1.35412310511609</v>
       </c>
       <c r="R21">
-        <v>1.121682727213135</v>
+        <v>1.359069307149522</v>
       </c>
       <c r="S21">
-        <v>1.121682727213135</v>
+        <v>1.359069307149522</v>
       </c>
       <c r="T21">
-        <v>1.087943244217457</v>
+        <v>1.167345198070838</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.536937310549211</v>
+        <v>1.707615870072982</v>
       </c>
       <c r="D22">
-        <v>1.531358887581805</v>
+        <v>1.688315945849754</v>
       </c>
       <c r="E22">
-        <v>1.531358887581805</v>
+        <v>1.688315945849754</v>
       </c>
       <c r="F22">
-        <v>1.214099971085245</v>
+        <v>1.038800848853574</v>
       </c>
       <c r="G22">
-        <v>1.002860696645874</v>
+        <v>0.9717261062944532</v>
       </c>
       <c r="H22">
-        <v>1.878288793126693</v>
+        <v>0.830882227038942</v>
       </c>
       <c r="I22">
-        <v>0.7531855683920222</v>
+        <v>0.9222055978286278</v>
       </c>
       <c r="J22">
-        <v>1.536937310549211</v>
+        <v>1.707615870072982</v>
       </c>
       <c r="K22">
-        <v>1.536937310549211</v>
+        <v>1.707615870072982</v>
       </c>
       <c r="L22">
-        <v>1.214099971085245</v>
+        <v>1.038800848853574</v>
       </c>
       <c r="M22">
-        <v>1.372729429333525</v>
+        <v>1.363558397351664</v>
       </c>
       <c r="N22">
-        <v>1.372729429333525</v>
+        <v>1.363558397351664</v>
       </c>
       <c r="O22">
-        <v>1.166214809019691</v>
+        <v>1.216440797510652</v>
       </c>
       <c r="P22">
-        <v>1.427465389738754</v>
+        <v>1.478244221592103</v>
       </c>
       <c r="Q22">
-        <v>1.427465389738754</v>
+        <v>1.478244221592103</v>
       </c>
       <c r="R22">
-        <v>1.454833369941368</v>
+        <v>1.535587133712323</v>
       </c>
       <c r="S22">
-        <v>1.454833369941368</v>
+        <v>1.535587133712323</v>
       </c>
       <c r="T22">
-        <v>1.319455204563475</v>
+        <v>1.193257765989722</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>2.75498545436585</v>
+      </c>
+      <c r="D23">
+        <v>3.689016962281872</v>
+      </c>
+      <c r="E23">
+        <v>3.689016962281872</v>
+      </c>
+      <c r="F23">
+        <v>0.8341444503765274</v>
+      </c>
+      <c r="G23">
+        <v>0.8237587541188875</v>
+      </c>
+      <c r="H23">
+        <v>2.217880479585305</v>
+      </c>
+      <c r="I23">
+        <v>0.6734479937056892</v>
+      </c>
+      <c r="J23">
+        <v>2.75498545436585</v>
+      </c>
+      <c r="K23">
+        <v>2.75498545436585</v>
+      </c>
+      <c r="L23">
+        <v>0.8341444503765274</v>
+      </c>
+      <c r="M23">
+        <v>2.2615807063292</v>
+      </c>
+      <c r="N23">
+        <v>2.2615807063292</v>
+      </c>
+      <c r="O23">
+        <v>1.732203135454697</v>
+      </c>
+      <c r="P23">
+        <v>2.42604895567475</v>
+      </c>
+      <c r="Q23">
+        <v>2.42604895567475</v>
+      </c>
+      <c r="R23">
+        <v>2.508283080347525</v>
+      </c>
+      <c r="S23">
+        <v>2.508283080347525</v>
+      </c>
+      <c r="T23">
+        <v>1.832205682405689</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>5.66284010751539</v>
+      </c>
+      <c r="D24">
+        <v>0.001299818629037552</v>
+      </c>
+      <c r="E24">
+        <v>0.001299818629037552</v>
+      </c>
+      <c r="F24">
+        <v>-0.001364000895071943</v>
+      </c>
+      <c r="G24">
+        <v>1.199397461479271</v>
+      </c>
+      <c r="H24">
+        <v>0.0009333249709170005</v>
+      </c>
+      <c r="I24">
+        <v>1.442004732701281</v>
+      </c>
+      <c r="J24">
+        <v>5.66284010751539</v>
+      </c>
+      <c r="K24">
+        <v>5.66284010751539</v>
+      </c>
+      <c r="L24">
+        <v>-0.001364000895071943</v>
+      </c>
+      <c r="M24">
+        <v>-3.20911330171955E-05</v>
+      </c>
+      <c r="N24">
+        <v>-3.20911330171955E-05</v>
+      </c>
+      <c r="O24">
+        <v>0.4806468501450822</v>
+      </c>
+      <c r="P24">
+        <v>1.887591975083118</v>
+      </c>
+      <c r="Q24">
+        <v>1.887591975083118</v>
+      </c>
+      <c r="R24">
+        <v>2.831404008191186</v>
+      </c>
+      <c r="S24">
+        <v>2.831404008191186</v>
+      </c>
+      <c r="T24">
+        <v>1.384185240733471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>-0.003057026860160005</v>
+      </c>
+      <c r="D25">
+        <v>0.07655865010261245</v>
+      </c>
+      <c r="E25">
+        <v>0.07655865010261245</v>
+      </c>
+      <c r="F25">
+        <v>3.85831963452449</v>
+      </c>
+      <c r="G25">
+        <v>1.104380602830818</v>
+      </c>
+      <c r="H25">
+        <v>0.005684776780114497</v>
+      </c>
+      <c r="I25">
+        <v>0.002382954125453752</v>
+      </c>
+      <c r="J25">
+        <v>-0.003057026860160005</v>
+      </c>
+      <c r="K25">
+        <v>-0.003057026860160005</v>
+      </c>
+      <c r="L25">
+        <v>3.85831963452449</v>
+      </c>
+      <c r="M25">
+        <v>1.967439142313551</v>
+      </c>
+      <c r="N25">
+        <v>1.967439142313551</v>
+      </c>
+      <c r="O25">
+        <v>1.312420412917519</v>
+      </c>
+      <c r="P25">
+        <v>1.310607085922314</v>
+      </c>
+      <c r="Q25">
+        <v>1.310607085922314</v>
+      </c>
+      <c r="R25">
+        <v>0.9821910577266957</v>
+      </c>
+      <c r="S25">
+        <v>0.9821910577266957</v>
+      </c>
+      <c r="T25">
+        <v>0.8407115985838881</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.003429442487536849</v>
+      </c>
+      <c r="D26">
+        <v>0.003550294423994047</v>
+      </c>
+      <c r="E26">
+        <v>0.003550294423994047</v>
+      </c>
+      <c r="F26">
+        <v>-0.001502850586985303</v>
+      </c>
+      <c r="G26">
+        <v>3.329147908393139</v>
+      </c>
+      <c r="H26">
+        <v>0.4085801478221999</v>
+      </c>
+      <c r="I26">
+        <v>-0.001791996581089031</v>
+      </c>
+      <c r="J26">
+        <v>0.003429442487536849</v>
+      </c>
+      <c r="K26">
+        <v>0.003429442487536849</v>
+      </c>
+      <c r="L26">
+        <v>-0.001502850586985303</v>
+      </c>
+      <c r="M26">
+        <v>0.001023721918504372</v>
+      </c>
+      <c r="N26">
+        <v>0.001023721918504372</v>
+      </c>
+      <c r="O26">
+        <v>8.514908530657113E-05</v>
+      </c>
+      <c r="P26">
+        <v>0.001825628774848531</v>
+      </c>
+      <c r="Q26">
+        <v>0.001825628774848531</v>
+      </c>
+      <c r="R26">
+        <v>0.002226582203020611</v>
+      </c>
+      <c r="S26">
+        <v>0.002226582203020611</v>
+      </c>
+      <c r="T26">
+        <v>0.623568824326466</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.697254818845401</v>
+      </c>
+      <c r="D27">
+        <v>0.07612010679240608</v>
+      </c>
+      <c r="E27">
+        <v>0.07612010679240608</v>
+      </c>
+      <c r="F27">
+        <v>0.04034612682130258</v>
+      </c>
+      <c r="G27">
+        <v>0.6961009520903263</v>
+      </c>
+      <c r="H27">
+        <v>0.2668842195185722</v>
+      </c>
+      <c r="I27">
+        <v>3.539634565328714</v>
+      </c>
+      <c r="J27">
+        <v>1.697254818845401</v>
+      </c>
+      <c r="K27">
+        <v>1.697254818845401</v>
+      </c>
+      <c r="L27">
+        <v>0.04034612682130258</v>
+      </c>
+      <c r="M27">
+        <v>0.05823311680685433</v>
+      </c>
+      <c r="N27">
+        <v>0.05823311680685433</v>
+      </c>
+      <c r="O27">
+        <v>1.218700266314141</v>
+      </c>
+      <c r="P27">
+        <v>0.6045736841530366</v>
+      </c>
+      <c r="Q27">
+        <v>0.6045736841530365</v>
+      </c>
+      <c r="R27">
+        <v>0.8777439678261276</v>
+      </c>
+      <c r="S27">
+        <v>0.8777439678261276</v>
+      </c>
+      <c r="T27">
+        <v>1.052723464899454</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>5.915868118029351</v>
+      </c>
+      <c r="D28">
+        <v>13.45271027033995</v>
+      </c>
+      <c r="E28">
+        <v>13.45271027033995</v>
+      </c>
+      <c r="F28">
+        <v>0.2179771898230611</v>
+      </c>
+      <c r="G28">
+        <v>0.2021918934941328</v>
+      </c>
+      <c r="H28">
+        <v>0.2119612389664951</v>
+      </c>
+      <c r="I28">
+        <v>5.546928339187059</v>
+      </c>
+      <c r="J28">
+        <v>5.915868118029351</v>
+      </c>
+      <c r="K28">
+        <v>5.915868118029351</v>
+      </c>
+      <c r="L28">
+        <v>0.2179771898230611</v>
+      </c>
+      <c r="M28">
+        <v>6.835343730081505</v>
+      </c>
+      <c r="N28">
+        <v>6.835343730081505</v>
+      </c>
+      <c r="O28">
+        <v>6.40587193311669</v>
+      </c>
+      <c r="P28">
+        <v>6.528851859397453</v>
+      </c>
+      <c r="Q28">
+        <v>6.528851859397453</v>
+      </c>
+      <c r="R28">
+        <v>6.375605924055428</v>
+      </c>
+      <c r="S28">
+        <v>6.375605924055428</v>
+      </c>
+      <c r="T28">
+        <v>4.257939508306674</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>4.280027850865543</v>
+      </c>
+      <c r="D29">
+        <v>11.88290908464004</v>
+      </c>
+      <c r="E29">
+        <v>11.88290908464004</v>
+      </c>
+      <c r="F29">
+        <v>0.4299303955584838</v>
+      </c>
+      <c r="G29">
+        <v>0.40348695955514</v>
+      </c>
+      <c r="H29">
+        <v>0.415993485742059</v>
+      </c>
+      <c r="I29">
+        <v>4.071457169965214</v>
+      </c>
+      <c r="J29">
+        <v>4.280027850865543</v>
+      </c>
+      <c r="K29">
+        <v>4.280027850865543</v>
+      </c>
+      <c r="L29">
+        <v>0.4299303955584838</v>
+      </c>
+      <c r="M29">
+        <v>6.156419740099262</v>
+      </c>
+      <c r="N29">
+        <v>6.156419740099262</v>
+      </c>
+      <c r="O29">
+        <v>5.461432216721246</v>
+      </c>
+      <c r="P29">
+        <v>5.530955777021355</v>
+      </c>
+      <c r="Q29">
+        <v>5.530955777021354</v>
+      </c>
+      <c r="R29">
+        <v>5.218223795482402</v>
+      </c>
+      <c r="S29">
+        <v>5.218223795482402</v>
+      </c>
+      <c r="T29">
+        <v>3.580634157721079</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.093430314694581</v>
+      </c>
+      <c r="D30">
+        <v>8.007216663115999</v>
+      </c>
+      <c r="E30">
+        <v>8.007216663115999</v>
+      </c>
+      <c r="F30">
+        <v>1.084163844712416</v>
+      </c>
+      <c r="G30">
+        <v>0.8803175582323252</v>
+      </c>
+      <c r="H30">
+        <v>1.252333514782543</v>
+      </c>
+      <c r="I30">
+        <v>0.851722821743191</v>
+      </c>
+      <c r="J30">
+        <v>1.093430314694581</v>
+      </c>
+      <c r="K30">
+        <v>1.093430314694581</v>
+      </c>
+      <c r="L30">
+        <v>1.084163844712416</v>
+      </c>
+      <c r="M30">
+        <v>4.545690253914207</v>
+      </c>
+      <c r="N30">
+        <v>4.545690253914207</v>
+      </c>
+      <c r="O30">
+        <v>3.314367776523869</v>
+      </c>
+      <c r="P30">
+        <v>3.394936940840999</v>
+      </c>
+      <c r="Q30">
+        <v>3.394936940840999</v>
+      </c>
+      <c r="R30">
+        <v>2.819560284304394</v>
+      </c>
+      <c r="S30">
+        <v>2.819560284304394</v>
+      </c>
+      <c r="T30">
+        <v>2.194864119546843</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.868968154920511</v>
+      </c>
+      <c r="D31">
+        <v>12.06397749173724</v>
+      </c>
+      <c r="E31">
+        <v>12.06397749173724</v>
+      </c>
+      <c r="F31">
+        <v>0.9414547878421082</v>
+      </c>
+      <c r="G31">
+        <v>0.7934968609322209</v>
+      </c>
+      <c r="H31">
+        <v>2.773267499694476</v>
+      </c>
+      <c r="I31">
+        <v>1.015904935457091</v>
+      </c>
+      <c r="J31">
+        <v>1.868968154920511</v>
+      </c>
+      <c r="K31">
+        <v>1.868968154920511</v>
+      </c>
+      <c r="L31">
+        <v>0.9414547878421082</v>
+      </c>
+      <c r="M31">
+        <v>6.502716139789676</v>
+      </c>
+      <c r="N31">
+        <v>6.502716139789676</v>
+      </c>
+      <c r="O31">
+        <v>4.673779071678815</v>
+      </c>
+      <c r="P31">
+        <v>4.958133478166621</v>
+      </c>
+      <c r="Q31">
+        <v>4.958133478166621</v>
+      </c>
+      <c r="R31">
+        <v>4.185842147355094</v>
+      </c>
+      <c r="S31">
+        <v>4.185842147355094</v>
+      </c>
+      <c r="T31">
+        <v>3.242844955097275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>9.128769431760546</v>
+      </c>
+      <c r="D32">
+        <v>14.94741682780137</v>
+      </c>
+      <c r="E32">
+        <v>14.94741682780137</v>
+      </c>
+      <c r="F32">
+        <v>0.005261852099726029</v>
+      </c>
+      <c r="G32">
+        <v>0.000338818719780822</v>
+      </c>
+      <c r="H32">
+        <v>0.007498260964383564</v>
+      </c>
+      <c r="I32">
+        <v>6.924194788861644</v>
+      </c>
+      <c r="J32">
+        <v>9.128769431760546</v>
+      </c>
+      <c r="K32">
+        <v>9.128769431760546</v>
+      </c>
+      <c r="L32">
+        <v>0.005261852099726029</v>
+      </c>
+      <c r="M32">
+        <v>7.476339339950548</v>
+      </c>
+      <c r="N32">
+        <v>7.476339339950548</v>
+      </c>
+      <c r="O32">
+        <v>7.292291156254247</v>
+      </c>
+      <c r="P32">
+        <v>8.027149370553881</v>
+      </c>
+      <c r="Q32">
+        <v>8.027149370553881</v>
+      </c>
+      <c r="R32">
+        <v>8.302554385855547</v>
+      </c>
+      <c r="S32">
+        <v>8.302554385855547</v>
+      </c>
+      <c r="T32">
+        <v>5.168913330034575</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>6.77518528468579</v>
+      </c>
+      <c r="D33">
+        <v>13.55024100243999</v>
+      </c>
+      <c r="E33">
+        <v>13.55024100243999</v>
+      </c>
+      <c r="F33">
+        <v>3.576545425997369</v>
+      </c>
+      <c r="G33">
+        <v>-0.007005507620000001</v>
+      </c>
+      <c r="H33">
+        <v>10.73438975628948</v>
+      </c>
+      <c r="I33">
+        <v>0.001342648583157895</v>
+      </c>
+      <c r="J33">
+        <v>6.77518528468579</v>
+      </c>
+      <c r="K33">
+        <v>6.77518528468579</v>
+      </c>
+      <c r="L33">
+        <v>3.576545425997369</v>
+      </c>
+      <c r="M33">
+        <v>8.56339321421868</v>
+      </c>
+      <c r="N33">
+        <v>8.56339321421868</v>
+      </c>
+      <c r="O33">
+        <v>5.709376359006839</v>
+      </c>
+      <c r="P33">
+        <v>7.967323904374383</v>
+      </c>
+      <c r="Q33">
+        <v>7.967323904374383</v>
+      </c>
+      <c r="R33">
+        <v>7.669289249452235</v>
+      </c>
+      <c r="S33">
+        <v>7.669289249452235</v>
+      </c>
+      <c r="T33">
+        <v>5.771783101729297</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>6.77518528468579</v>
+      </c>
+      <c r="D34">
+        <v>13.55024100243999</v>
+      </c>
+      <c r="E34">
+        <v>13.55024100243999</v>
+      </c>
+      <c r="F34">
+        <v>3.576545425997369</v>
+      </c>
+      <c r="G34">
+        <v>-0.007005507620000001</v>
+      </c>
+      <c r="H34">
+        <v>10.73438975628948</v>
+      </c>
+      <c r="I34">
+        <v>0.001342648583157895</v>
+      </c>
+      <c r="J34">
+        <v>6.77518528468579</v>
+      </c>
+      <c r="K34">
+        <v>6.77518528468579</v>
+      </c>
+      <c r="L34">
+        <v>3.576545425997369</v>
+      </c>
+      <c r="M34">
+        <v>8.56339321421868</v>
+      </c>
+      <c r="N34">
+        <v>8.56339321421868</v>
+      </c>
+      <c r="O34">
+        <v>5.709376359006839</v>
+      </c>
+      <c r="P34">
+        <v>7.967323904374383</v>
+      </c>
+      <c r="Q34">
+        <v>7.967323904374383</v>
+      </c>
+      <c r="R34">
+        <v>7.669289249452235</v>
+      </c>
+      <c r="S34">
+        <v>7.669289249452235</v>
+      </c>
+      <c r="T34">
+        <v>5.771783101729297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4427245684866227</v>
+      </c>
+      <c r="D35">
+        <v>125.1361841735616</v>
+      </c>
+      <c r="E35">
+        <v>125.1361841735616</v>
+      </c>
+      <c r="F35">
+        <v>0.4384187047996042</v>
+      </c>
+      <c r="G35">
+        <v>0.4143614075564635</v>
+      </c>
+      <c r="H35">
+        <v>0.4113257030183502</v>
+      </c>
+      <c r="I35">
+        <v>0.5421099595269819</v>
+      </c>
+      <c r="J35">
+        <v>0.4427245684866227</v>
+      </c>
+      <c r="K35">
+        <v>0.4427245684866227</v>
+      </c>
+      <c r="L35">
+        <v>0.4384187047996042</v>
+      </c>
+      <c r="M35">
+        <v>62.78730143918059</v>
+      </c>
+      <c r="N35">
+        <v>62.78730143918059</v>
+      </c>
+      <c r="O35">
+        <v>42.03890427929606</v>
+      </c>
+      <c r="P35">
+        <v>42.00577581561593</v>
+      </c>
+      <c r="Q35">
+        <v>42.00577581561593</v>
+      </c>
+      <c r="R35">
+        <v>31.61501300383361</v>
+      </c>
+      <c r="S35">
+        <v>31.61501300383361</v>
+      </c>
+      <c r="T35">
+        <v>21.23085408615827</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.069985813516804</v>
+      </c>
+      <c r="D36">
+        <v>1.101500240535743</v>
+      </c>
+      <c r="E36">
+        <v>1.101500240535743</v>
+      </c>
+      <c r="F36">
+        <v>1.036782521065242</v>
+      </c>
+      <c r="G36">
+        <v>0.9828962536752571</v>
+      </c>
+      <c r="H36">
+        <v>1.077638792365338</v>
+      </c>
+      <c r="I36">
+        <v>1.027538098283377</v>
+      </c>
+      <c r="J36">
+        <v>1.069985813516804</v>
+      </c>
+      <c r="K36">
+        <v>1.069985813516804</v>
+      </c>
+      <c r="L36">
+        <v>1.036782521065242</v>
+      </c>
+      <c r="M36">
+        <v>1.069141380800493</v>
+      </c>
+      <c r="N36">
+        <v>1.069141380800493</v>
+      </c>
+      <c r="O36">
+        <v>1.055273619961454</v>
+      </c>
+      <c r="P36">
+        <v>1.069422858372596</v>
+      </c>
+      <c r="Q36">
+        <v>1.069422858372597</v>
+      </c>
+      <c r="R36">
+        <v>1.069563597158649</v>
+      </c>
+      <c r="S36">
+        <v>1.069563597158649</v>
+      </c>
+      <c r="T36">
+        <v>1.049390286573627</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.021942369885157</v>
+      </c>
+      <c r="D37">
+        <v>1.375903714389545</v>
+      </c>
+      <c r="E37">
+        <v>1.375903714389545</v>
+      </c>
+      <c r="F37">
+        <v>1.066942454692681</v>
+      </c>
+      <c r="G37">
+        <v>0.974997628242552</v>
+      </c>
+      <c r="H37">
+        <v>1.101343739026354</v>
+      </c>
+      <c r="I37">
+        <v>0.9865295590684533</v>
+      </c>
+      <c r="J37">
+        <v>1.021942369885157</v>
+      </c>
+      <c r="K37">
+        <v>1.021942369885157</v>
+      </c>
+      <c r="L37">
+        <v>1.066942454692681</v>
+      </c>
+      <c r="M37">
+        <v>1.221423084541113</v>
+      </c>
+      <c r="N37">
+        <v>1.221423084541113</v>
+      </c>
+      <c r="O37">
+        <v>1.143125242716893</v>
+      </c>
+      <c r="P37">
+        <v>1.154929512989128</v>
+      </c>
+      <c r="Q37">
+        <v>1.154929512989128</v>
+      </c>
+      <c r="R37">
+        <v>1.121682727213135</v>
+      </c>
+      <c r="S37">
+        <v>1.121682727213135</v>
+      </c>
+      <c r="T37">
+        <v>1.087943244217457</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.536937310549211</v>
+      </c>
+      <c r="D38">
+        <v>1.531358887581805</v>
+      </c>
+      <c r="E38">
+        <v>1.531358887581805</v>
+      </c>
+      <c r="F38">
+        <v>1.214099971085245</v>
+      </c>
+      <c r="G38">
+        <v>1.002860696645874</v>
+      </c>
+      <c r="H38">
+        <v>1.878288793126693</v>
+      </c>
+      <c r="I38">
+        <v>0.7531855683920222</v>
+      </c>
+      <c r="J38">
+        <v>1.536937310549211</v>
+      </c>
+      <c r="K38">
+        <v>1.536937310549211</v>
+      </c>
+      <c r="L38">
+        <v>1.214099971085245</v>
+      </c>
+      <c r="M38">
+        <v>1.372729429333525</v>
+      </c>
+      <c r="N38">
+        <v>1.372729429333525</v>
+      </c>
+      <c r="O38">
+        <v>1.166214809019691</v>
+      </c>
+      <c r="P38">
+        <v>1.427465389738754</v>
+      </c>
+      <c r="Q38">
+        <v>1.427465389738754</v>
+      </c>
+      <c r="R38">
+        <v>1.454833369941368</v>
+      </c>
+      <c r="S38">
+        <v>1.454833369941368</v>
+      </c>
+      <c r="T38">
+        <v>1.319455204563475</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.7710474086437374</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>3.376785139210925</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>3.376785139210925</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.3463967080220701</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.224448754682695</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>2.79096644987684</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.4829178147737401</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.7710474086437374</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.7710474086437374</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.3463967080220701</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.861590923616498</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.861590923616498</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.402033220668912</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.498076418625578</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.498076418625577</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.316319166130117</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.316319166130117</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.498760379201668</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>2.297695032267322</v>
+      </c>
+      <c r="D40">
+        <v>1.021597117278332</v>
+      </c>
+      <c r="E40">
+        <v>1.021597117278332</v>
+      </c>
+      <c r="F40">
+        <v>0.9238486189422002</v>
+      </c>
+      <c r="G40">
+        <v>0.9209517647361799</v>
+      </c>
+      <c r="H40">
+        <v>1.118912271658837</v>
+      </c>
+      <c r="I40">
+        <v>0.8541439947632339</v>
+      </c>
+      <c r="J40">
+        <v>2.297695032267322</v>
+      </c>
+      <c r="K40">
+        <v>2.297695032267322</v>
+      </c>
+      <c r="L40">
+        <v>0.9238486189422002</v>
+      </c>
+      <c r="M40">
+        <v>0.9727228681102663</v>
+      </c>
+      <c r="N40">
+        <v>0.9727228681102663</v>
+      </c>
+      <c r="O40">
+        <v>0.9331965769945888</v>
+      </c>
+      <c r="P40">
+        <v>1.414380256162618</v>
+      </c>
+      <c r="Q40">
+        <v>1.414380256162618</v>
+      </c>
+      <c r="R40">
+        <v>1.635208950188794</v>
+      </c>
+      <c r="S40">
+        <v>1.635208950188794</v>
+      </c>
+      <c r="T40">
+        <v>1.189524799941017</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.315040198029331</v>
+      </c>
+      <c r="D41">
+        <v>1.088605424307293</v>
+      </c>
+      <c r="E41">
+        <v>1.088605424307293</v>
+      </c>
+      <c r="F41">
+        <v>1.166759041332479</v>
+      </c>
+      <c r="G41">
+        <v>1.073676512846901</v>
+      </c>
+      <c r="H41">
+        <v>0.8884797818786444</v>
+      </c>
+      <c r="I41">
+        <v>0.9764249228477005</v>
+      </c>
+      <c r="J41">
+        <v>1.315040198029331</v>
+      </c>
+      <c r="K41">
+        <v>1.315040198029331</v>
+      </c>
+      <c r="L41">
+        <v>1.166759041332479</v>
+      </c>
+      <c r="M41">
+        <v>1.127682232819886</v>
+      </c>
+      <c r="N41">
+        <v>1.127682232819886</v>
+      </c>
+      <c r="O41">
+        <v>1.077263129495824</v>
+      </c>
+      <c r="P41">
+        <v>1.190134887889701</v>
+      </c>
+      <c r="Q41">
+        <v>1.190134887889701</v>
+      </c>
+      <c r="R41">
+        <v>1.221361215424609</v>
+      </c>
+      <c r="S41">
+        <v>1.221361215424609</v>
+      </c>
+      <c r="T41">
+        <v>1.084830980207058</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>2.036847726868067</v>
+      </c>
+      <c r="D42">
+        <v>1.886789766175396</v>
+      </c>
+      <c r="E42">
+        <v>1.886789766175396</v>
+      </c>
+      <c r="F42">
+        <v>0.612912251899234</v>
+      </c>
+      <c r="G42">
+        <v>0.4234853586678232</v>
+      </c>
+      <c r="H42">
+        <v>0.3052181491192621</v>
+      </c>
+      <c r="I42">
+        <v>1.730743632419712</v>
+      </c>
+      <c r="J42">
+        <v>2.036847726868067</v>
+      </c>
+      <c r="K42">
+        <v>2.036847726868067</v>
+      </c>
+      <c r="L42">
+        <v>0.612912251899234</v>
+      </c>
+      <c r="M42">
+        <v>1.249851009037315</v>
+      </c>
+      <c r="N42">
+        <v>1.249851009037315</v>
+      </c>
+      <c r="O42">
+        <v>1.410148550164781</v>
+      </c>
+      <c r="P42">
+        <v>1.512183248314232</v>
+      </c>
+      <c r="Q42">
+        <v>1.512183248314232</v>
+      </c>
+      <c r="R42">
+        <v>1.643349367952691</v>
+      </c>
+      <c r="S42">
+        <v>1.643349367952691</v>
+      </c>
+      <c r="T42">
+        <v>1.165999480858249</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW03.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,58 +582,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,58 +644,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.418544780432685</v>
+        <v>1.156039200881489</v>
       </c>
       <c r="D3">
-        <v>1.860651811933152</v>
+        <v>1.433083181673554</v>
       </c>
       <c r="E3">
-        <v>1.00709299985256</v>
+        <v>1.433083181673554</v>
       </c>
       <c r="F3">
-        <v>1.418544780432685</v>
+        <v>1.019674424197587</v>
       </c>
       <c r="G3">
-        <v>1.022537689336039</v>
+        <v>0.9767335214276454</v>
       </c>
       <c r="H3">
-        <v>1.279287739271088</v>
+        <v>1.051873176257994</v>
       </c>
       <c r="I3">
-        <v>0.9347681516241226</v>
+        <v>1.011162828160107</v>
       </c>
       <c r="J3">
-        <v>1.860651811933152</v>
+        <v>1.156039200881489</v>
       </c>
       <c r="K3">
-        <v>1.418544780432685</v>
+        <v>1.156039200881489</v>
       </c>
       <c r="L3">
-        <v>1.00709299985256</v>
+        <v>1.019674424197587</v>
       </c>
       <c r="M3">
-        <v>1.433872405892856</v>
+        <v>1.226378802935571</v>
       </c>
       <c r="N3">
-        <v>1.433872405892856</v>
+        <v>1.226378802935571</v>
       </c>
       <c r="O3">
-        <v>1.3823441836856</v>
+        <v>1.154640144677083</v>
       </c>
       <c r="P3">
-        <v>1.428763197406132</v>
+        <v>1.202932268917543</v>
       </c>
       <c r="Q3">
-        <v>1.428763197406132</v>
+        <v>1.202932268917543</v>
       </c>
       <c r="R3">
-        <v>1.426208593162771</v>
+        <v>1.19120900190853</v>
       </c>
       <c r="S3">
-        <v>1.426208593162771</v>
+        <v>1.19120900190853</v>
       </c>
       <c r="T3">
-        <v>1.253813862074941</v>
+        <v>1.108094388766396</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,58 +706,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.614038120730488</v>
+        <v>2.297695032267322</v>
       </c>
       <c r="D4">
-        <v>2.990248636793881</v>
+        <v>1.021597117278332</v>
       </c>
       <c r="E4">
-        <v>1.198754076655346</v>
+        <v>1.021597117278332</v>
       </c>
       <c r="F4">
-        <v>1.614038120730488</v>
+        <v>0.9238486189422002</v>
       </c>
       <c r="G4">
-        <v>1.453259461500786</v>
+        <v>0.9209517647361799</v>
       </c>
       <c r="H4">
-        <v>1.681010733892708</v>
+        <v>1.118912271658837</v>
       </c>
       <c r="I4">
-        <v>0.832651845725387</v>
+        <v>0.8541439947632339</v>
       </c>
       <c r="J4">
-        <v>2.990248636793881</v>
+        <v>2.297695032267322</v>
       </c>
       <c r="K4">
-        <v>1.614038120730488</v>
+        <v>2.297695032267322</v>
       </c>
       <c r="L4">
-        <v>1.198754076655346</v>
+        <v>0.9238486189422002</v>
       </c>
       <c r="M4">
-        <v>2.094501356724613</v>
+        <v>0.9727228681102663</v>
       </c>
       <c r="N4">
-        <v>2.094501356724613</v>
+        <v>0.9727228681102663</v>
       </c>
       <c r="O4">
-        <v>1.956671149113978</v>
+        <v>0.9331965769945888</v>
       </c>
       <c r="P4">
-        <v>1.934346944726571</v>
+        <v>1.414380256162618</v>
       </c>
       <c r="Q4">
-        <v>1.934346944726571</v>
+        <v>1.414380256162618</v>
       </c>
       <c r="R4">
-        <v>1.85426973872755</v>
+        <v>1.635208950188794</v>
       </c>
       <c r="S4">
-        <v>1.85426973872755</v>
+        <v>1.635208950188794</v>
       </c>
       <c r="T4">
-        <v>1.628327145883099</v>
+        <v>1.189524799941017</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,58 +768,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.135331206369315</v>
+        <v>1.103131782726154</v>
       </c>
       <c r="D5">
-        <v>2.867277901681242</v>
+        <v>14.55149167597298</v>
       </c>
       <c r="E5">
-        <v>0.2559661095282176</v>
+        <v>14.55149167597298</v>
       </c>
       <c r="F5">
-        <v>4.135331206369315</v>
+        <v>0.85228720937766</v>
       </c>
       <c r="G5">
-        <v>4.329996223957933</v>
+        <v>0.7583933645279194</v>
       </c>
       <c r="H5">
-        <v>1.600277093300255</v>
+        <v>0.9225711430150583</v>
       </c>
       <c r="I5">
-        <v>0.9662870797819471</v>
+        <v>1.212323787818476</v>
       </c>
       <c r="J5">
-        <v>2.867277901681242</v>
+        <v>1.103131782726154</v>
       </c>
       <c r="K5">
-        <v>4.135331206369315</v>
+        <v>1.103131782726154</v>
       </c>
       <c r="L5">
-        <v>0.2559661095282176</v>
+        <v>0.85228720937766</v>
       </c>
       <c r="M5">
-        <v>1.56162200560473</v>
+        <v>7.701889442675322</v>
       </c>
       <c r="N5">
-        <v>1.56162200560473</v>
+        <v>7.701889442675322</v>
       </c>
       <c r="O5">
-        <v>1.574507034836572</v>
+        <v>5.538700891056373</v>
       </c>
       <c r="P5">
-        <v>2.419525072526258</v>
+        <v>5.502303556025599</v>
       </c>
       <c r="Q5">
-        <v>2.419525072526258</v>
+        <v>5.502303556025598</v>
       </c>
       <c r="R5">
-        <v>2.848476605987023</v>
+        <v>4.402510612700738</v>
       </c>
       <c r="S5">
-        <v>2.848476605987023</v>
+        <v>4.402510612700738</v>
       </c>
       <c r="T5">
-        <v>2.359189269103152</v>
+        <v>3.233366493906375</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,58 +830,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>7.935375613147194</v>
+        <v>0.4427245684866227</v>
       </c>
       <c r="D6">
-        <v>19.85558231626316</v>
+        <v>125.1361841735616</v>
       </c>
       <c r="E6">
-        <v>2.610193499615355</v>
+        <v>125.1361841735616</v>
       </c>
       <c r="F6">
-        <v>7.935375613147194</v>
+        <v>0.4384187047996042</v>
       </c>
       <c r="G6">
-        <v>0.05394110470409223</v>
+        <v>0.4143614075564635</v>
       </c>
       <c r="H6">
-        <v>2.335698284979014</v>
+        <v>0.4113257030183502</v>
       </c>
       <c r="I6">
-        <v>0.08999357144096055</v>
+        <v>0.5421099595269819</v>
       </c>
       <c r="J6">
-        <v>19.85558231626316</v>
+        <v>0.4427245684866227</v>
       </c>
       <c r="K6">
-        <v>7.935375613147194</v>
+        <v>0.4427245684866227</v>
       </c>
       <c r="L6">
-        <v>2.610193499615355</v>
+        <v>0.4384187047996042</v>
       </c>
       <c r="M6">
-        <v>11.23288790793926</v>
+        <v>62.78730143918059</v>
       </c>
       <c r="N6">
-        <v>11.23288790793926</v>
+        <v>62.78730143918059</v>
       </c>
       <c r="O6">
-        <v>8.267158033619177</v>
+        <v>42.03890427929606</v>
       </c>
       <c r="P6">
-        <v>10.13371714300857</v>
+        <v>42.00577581561593</v>
       </c>
       <c r="Q6">
-        <v>10.13371714300857</v>
+        <v>42.00577581561593</v>
       </c>
       <c r="R6">
-        <v>9.584131760543226</v>
+        <v>31.61501300383361</v>
       </c>
       <c r="S6">
-        <v>9.584131760543226</v>
+        <v>31.61501300383361</v>
       </c>
       <c r="T6">
-        <v>5.480130731691631</v>
+        <v>21.23085408615827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -862,58 +892,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.088360461186091</v>
+        <v>1.339531106037121</v>
       </c>
       <c r="D7">
-        <v>1.213261964864897</v>
+        <v>1.725075798310838</v>
       </c>
       <c r="E7">
-        <v>1.02205996992434</v>
+        <v>1.725075798310838</v>
       </c>
       <c r="F7">
-        <v>1.088360461186091</v>
+        <v>1.046891277149952</v>
       </c>
       <c r="G7">
-        <v>1.052806616945357</v>
+        <v>0.9361689194299634</v>
       </c>
       <c r="H7">
-        <v>1.010081731991739</v>
+        <v>1.029478878444288</v>
       </c>
       <c r="I7">
-        <v>0.9794617712348143</v>
+        <v>1.263458442935324</v>
       </c>
       <c r="J7">
-        <v>1.213261964864897</v>
+        <v>1.339531106037121</v>
       </c>
       <c r="K7">
-        <v>1.088360461186091</v>
+        <v>1.339531106037121</v>
       </c>
       <c r="L7">
-        <v>1.02205996992434</v>
+        <v>1.046891277149952</v>
       </c>
       <c r="M7">
-        <v>1.117660967394618</v>
+        <v>1.385983537730395</v>
       </c>
       <c r="N7">
-        <v>1.117660967394618</v>
+        <v>1.385983537730395</v>
       </c>
       <c r="O7">
-        <v>1.081801222260325</v>
+        <v>1.345141839465371</v>
       </c>
       <c r="P7">
-        <v>1.107894131991776</v>
+        <v>1.370499393832637</v>
       </c>
       <c r="Q7">
-        <v>1.107894131991776</v>
+        <v>1.370499393832637</v>
       </c>
       <c r="R7">
-        <v>1.103010714290355</v>
+        <v>1.362757321883758</v>
       </c>
       <c r="S7">
-        <v>1.103010714290355</v>
+        <v>1.362757321883758</v>
       </c>
       <c r="T7">
-        <v>1.061005419357873</v>
+        <v>1.223434070384581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -924,58 +954,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.156039200881489</v>
+        <v>1.021942369885157</v>
       </c>
       <c r="D8">
-        <v>1.433083181673513</v>
+        <v>1.375903714389545</v>
       </c>
       <c r="E8">
-        <v>1.019674424197586</v>
+        <v>1.375903714389545</v>
       </c>
       <c r="F8">
-        <v>1.156039200881489</v>
+        <v>1.066942454692681</v>
       </c>
       <c r="G8">
-        <v>1.051873176257994</v>
+        <v>0.974997628242552</v>
       </c>
       <c r="H8">
-        <v>1.011162828160106</v>
+        <v>1.101343739026354</v>
       </c>
       <c r="I8">
-        <v>0.9767335214276449</v>
+        <v>0.9865295590684533</v>
       </c>
       <c r="J8">
-        <v>1.433083181673513</v>
+        <v>1.021942369885157</v>
       </c>
       <c r="K8">
-        <v>1.156039200881489</v>
+        <v>1.021942369885157</v>
       </c>
       <c r="L8">
-        <v>1.019674424197586</v>
+        <v>1.066942454692681</v>
       </c>
       <c r="M8">
-        <v>1.226378802935549</v>
+        <v>1.221423084541113</v>
       </c>
       <c r="N8">
-        <v>1.226378802935549</v>
+        <v>1.221423084541113</v>
       </c>
       <c r="O8">
-        <v>1.154640144677068</v>
+        <v>1.143125242716893</v>
       </c>
       <c r="P8">
-        <v>1.202932268917529</v>
+        <v>1.154929512989128</v>
       </c>
       <c r="Q8">
-        <v>1.202932268917529</v>
+        <v>1.154929512989128</v>
       </c>
       <c r="R8">
-        <v>1.191209001908519</v>
+        <v>1.121682727213135</v>
       </c>
       <c r="S8">
-        <v>1.191209001908519</v>
+        <v>1.121682727213135</v>
       </c>
       <c r="T8">
-        <v>1.108094388766389</v>
+        <v>1.087943244217457</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -986,58 +1016,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.373907913249817</v>
+        <v>1.614038120730488</v>
       </c>
       <c r="D9">
-        <v>1.66368559927018</v>
+        <v>2.990248636793881</v>
       </c>
       <c r="E9">
-        <v>1.024775802828273</v>
+        <v>2.990248636793881</v>
       </c>
       <c r="F9">
-        <v>1.373907913249817</v>
+        <v>1.198754076655346</v>
       </c>
       <c r="G9">
-        <v>1.005653107482082</v>
+        <v>0.832651845725387</v>
       </c>
       <c r="H9">
-        <v>0.9622531479041376</v>
+        <v>1.453259461500786</v>
       </c>
       <c r="I9">
-        <v>0.9737956176905396</v>
+        <v>1.681010733892708</v>
       </c>
       <c r="J9">
-        <v>1.66368559927018</v>
+        <v>1.614038120730488</v>
       </c>
       <c r="K9">
-        <v>1.373907913249817</v>
+        <v>1.614038120730488</v>
       </c>
       <c r="L9">
-        <v>1.024775802828273</v>
+        <v>1.198754076655346</v>
       </c>
       <c r="M9">
-        <v>1.344230701049226</v>
+        <v>2.094501356724613</v>
       </c>
       <c r="N9">
-        <v>1.344230701049226</v>
+        <v>2.094501356724613</v>
       </c>
       <c r="O9">
-        <v>1.216904850000863</v>
+        <v>1.956671149113978</v>
       </c>
       <c r="P9">
-        <v>1.35412310511609</v>
+        <v>1.934346944726571</v>
       </c>
       <c r="Q9">
-        <v>1.35412310511609</v>
+        <v>1.934346944726572</v>
       </c>
       <c r="R9">
-        <v>1.359069307149522</v>
+        <v>1.854269738727551</v>
       </c>
       <c r="S9">
-        <v>1.359069307149522</v>
+        <v>1.854269738727551</v>
       </c>
       <c r="T9">
-        <v>1.167345198070838</v>
+        <v>1.628327145883099</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1048,58 +1078,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.707615870072982</v>
+        <v>0.4718574610394128</v>
       </c>
       <c r="D10">
-        <v>1.688315945849754</v>
+        <v>126.8212155192449</v>
       </c>
       <c r="E10">
-        <v>1.038800848853574</v>
+        <v>126.8212155192449</v>
       </c>
       <c r="F10">
-        <v>1.707615870072982</v>
+        <v>0.2913048477176903</v>
       </c>
       <c r="G10">
-        <v>0.830882227038942</v>
+        <v>0.3915714702033051</v>
       </c>
       <c r="H10">
-        <v>0.9222055978286278</v>
+        <v>0.6412485022570845</v>
       </c>
       <c r="I10">
-        <v>0.9717261062944532</v>
+        <v>0.4863095866338932</v>
       </c>
       <c r="J10">
-        <v>1.688315945849754</v>
+        <v>0.4718574610394128</v>
       </c>
       <c r="K10">
-        <v>1.707615870072982</v>
+        <v>0.4718574610394128</v>
       </c>
       <c r="L10">
-        <v>1.038800848853574</v>
+        <v>0.2913048477176903</v>
       </c>
       <c r="M10">
-        <v>1.363558397351664</v>
+        <v>63.55626018348129</v>
       </c>
       <c r="N10">
-        <v>1.363558397351664</v>
+        <v>63.55626018348129</v>
       </c>
       <c r="O10">
-        <v>1.216440797510652</v>
+        <v>42.53294331786549</v>
       </c>
       <c r="P10">
-        <v>1.478244221592103</v>
+        <v>42.52812594266732</v>
       </c>
       <c r="Q10">
-        <v>1.478244221592103</v>
+        <v>42.52812594266732</v>
       </c>
       <c r="R10">
-        <v>1.535587133712323</v>
+        <v>32.01405882226035</v>
       </c>
       <c r="S10">
-        <v>1.535587133712323</v>
+        <v>32.01405882226035</v>
       </c>
       <c r="T10">
-        <v>1.193257765989722</v>
+        <v>21.51725123118271</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1110,58 +1140,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.75498545436585</v>
+        <v>2.555423626087605</v>
       </c>
       <c r="D11">
-        <v>3.689016962281872</v>
+        <v>0.9818978849006228</v>
       </c>
       <c r="E11">
-        <v>0.8341444503765273</v>
+        <v>0.9818978849006228</v>
       </c>
       <c r="F11">
-        <v>2.75498545436585</v>
+        <v>1.005396971842</v>
       </c>
       <c r="G11">
-        <v>2.21788047958531</v>
+        <v>1.003887375444549</v>
       </c>
       <c r="H11">
-        <v>0.6734479937056892</v>
+        <v>0.5663234093479681</v>
       </c>
       <c r="I11">
-        <v>0.8237587541188873</v>
+        <v>0.9471925765317998</v>
       </c>
       <c r="J11">
-        <v>3.689016962281872</v>
+        <v>2.555423626087605</v>
       </c>
       <c r="K11">
-        <v>2.75498545436585</v>
+        <v>2.555423626087605</v>
       </c>
       <c r="L11">
-        <v>0.8341444503765273</v>
+        <v>1.005396971842</v>
       </c>
       <c r="M11">
-        <v>2.2615807063292</v>
+        <v>0.9936474283713115</v>
       </c>
       <c r="N11">
-        <v>2.2615807063292</v>
+        <v>0.9936474283713115</v>
       </c>
       <c r="O11">
-        <v>1.732203135454697</v>
+        <v>0.9781624777581409</v>
       </c>
       <c r="P11">
-        <v>2.42604895567475</v>
+        <v>1.514239494276743</v>
       </c>
       <c r="Q11">
-        <v>2.42604895567475</v>
+        <v>1.514239494276742</v>
       </c>
       <c r="R11">
-        <v>2.508283080347525</v>
+        <v>1.774535527229458</v>
       </c>
       <c r="S11">
-        <v>2.508283080347525</v>
+        <v>1.774535527229458</v>
       </c>
       <c r="T11">
-        <v>1.832205682405689</v>
+        <v>1.176686974025757</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1172,58 +1202,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>5.662840107515387</v>
+        <v>0.8664482921988208</v>
       </c>
       <c r="D12">
-        <v>0.001299818629037551</v>
+        <v>20.0412283551049</v>
       </c>
       <c r="E12">
-        <v>-0.001364000895071941</v>
+        <v>20.0412283551049</v>
       </c>
       <c r="F12">
-        <v>5.662840107515387</v>
+        <v>0.6141309304186652</v>
       </c>
       <c r="G12">
-        <v>0.0009333249709170003</v>
+        <v>0.7938076481545802</v>
       </c>
       <c r="H12">
-        <v>1.442004732701289</v>
+        <v>1.347411825733389</v>
       </c>
       <c r="I12">
-        <v>1.199397461479271</v>
+        <v>0.8947097696683979</v>
       </c>
       <c r="J12">
-        <v>0.001299818629037551</v>
+        <v>0.8664482921988208</v>
       </c>
       <c r="K12">
-        <v>5.662840107515387</v>
+        <v>0.8664482921988208</v>
       </c>
       <c r="L12">
-        <v>-0.001364000895071941</v>
+        <v>0.6141309304186652</v>
       </c>
       <c r="M12">
-        <v>-3.209113301719507E-05</v>
+        <v>10.32767964276178</v>
       </c>
       <c r="N12">
-        <v>-3.209113301719507E-05</v>
+        <v>10.32767964276178</v>
       </c>
       <c r="O12">
-        <v>0.4806468501450848</v>
+        <v>7.183356351730652</v>
       </c>
       <c r="P12">
-        <v>1.887591975083118</v>
+        <v>7.173935859240793</v>
       </c>
       <c r="Q12">
-        <v>1.887591975083118</v>
+        <v>7.173935859240793</v>
       </c>
       <c r="R12">
-        <v>2.831404008191185</v>
+        <v>5.597063967480301</v>
       </c>
       <c r="S12">
-        <v>2.831404008191185</v>
+        <v>5.597063967480301</v>
       </c>
       <c r="T12">
-        <v>1.384185240733472</v>
+        <v>4.092956136879791</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1234,58 +1264,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>-0.003057026860160015</v>
+        <v>1.391705795735313</v>
       </c>
       <c r="D13">
-        <v>0.07655865010261245</v>
+        <v>0.754316028042879</v>
       </c>
       <c r="E13">
-        <v>3.858319634524491</v>
+        <v>0.754316028042879</v>
       </c>
       <c r="F13">
-        <v>-0.003057026860160015</v>
+        <v>0.8114804322982545</v>
       </c>
       <c r="G13">
-        <v>0.005684776780114519</v>
+        <v>1.105857356164798</v>
       </c>
       <c r="H13">
-        <v>0.002382954125453754</v>
+        <v>2.172339098839937</v>
       </c>
       <c r="I13">
-        <v>1.104380602830819</v>
+        <v>0.6526408726711388</v>
       </c>
       <c r="J13">
-        <v>0.07655865010261245</v>
+        <v>1.391705795735313</v>
       </c>
       <c r="K13">
-        <v>-0.003057026860160015</v>
+        <v>1.391705795735313</v>
       </c>
       <c r="L13">
-        <v>3.858319634524491</v>
+        <v>0.8114804322982545</v>
       </c>
       <c r="M13">
-        <v>1.967439142313552</v>
+        <v>0.7828982301705667</v>
       </c>
       <c r="N13">
-        <v>1.967439142313552</v>
+        <v>0.7828982301705667</v>
       </c>
       <c r="O13">
-        <v>1.312420412917519</v>
+        <v>0.7394791110040907</v>
       </c>
       <c r="P13">
-        <v>1.310607085922314</v>
+        <v>0.9858340853588156</v>
       </c>
       <c r="Q13">
-        <v>1.310607085922314</v>
+        <v>0.9858340853588156</v>
       </c>
       <c r="R13">
-        <v>0.9821910577266958</v>
+        <v>1.08730201295294</v>
       </c>
       <c r="S13">
-        <v>0.9821910577266958</v>
+        <v>1.08730201295294</v>
       </c>
       <c r="T13">
-        <v>0.8407115985838883</v>
+        <v>1.148056597292053</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1296,58 +1326,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.003429442487536855</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="D14">
-        <v>0.003550294423994042</v>
+        <v>242.2791099999998</v>
       </c>
       <c r="E14">
-        <v>-0.001502850586985305</v>
+        <v>242.2791099999998</v>
       </c>
       <c r="F14">
-        <v>0.003429442487536855</v>
+        <v>-0.0009775087999999992</v>
       </c>
       <c r="G14">
-        <v>0.4085801478222004</v>
+        <v>0.009084998199999982</v>
       </c>
       <c r="H14">
-        <v>-0.001791996581089028</v>
+        <v>0.01191020499999998</v>
       </c>
       <c r="I14">
-        <v>3.329147908393137</v>
+        <v>-0.01236578099999999</v>
       </c>
       <c r="J14">
-        <v>0.003550294423994042</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="K14">
-        <v>0.003429442487536855</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="L14">
-        <v>-0.001502850586985305</v>
+        <v>-0.0009775087999999992</v>
       </c>
       <c r="M14">
-        <v>0.001023721918504368</v>
+        <v>121.1390662455999</v>
       </c>
       <c r="N14">
-        <v>0.001023721918504368</v>
+        <v>121.1390662455999</v>
       </c>
       <c r="O14">
-        <v>8.514908530656968E-05</v>
+        <v>80.75525557006661</v>
       </c>
       <c r="P14">
-        <v>0.001825628774848531</v>
+        <v>80.75961383320994</v>
       </c>
       <c r="Q14">
-        <v>0.001825628774848531</v>
+        <v>80.75961383320994</v>
       </c>
       <c r="R14">
-        <v>0.002226582203020612</v>
+        <v>60.56988762701496</v>
       </c>
       <c r="S14">
-        <v>0.002226582203020612</v>
+        <v>60.56988762701496</v>
       </c>
       <c r="T14">
-        <v>0.6235688243264657</v>
+        <v>40.3812451536383</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1358,58 +1388,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.697254818845404</v>
+        <v>121.14151</v>
       </c>
       <c r="D15">
-        <v>0.07612010679240608</v>
+        <v>0.00070900846</v>
       </c>
       <c r="E15">
-        <v>0.04034612682130259</v>
+        <v>0.00070900846</v>
       </c>
       <c r="F15">
-        <v>1.697254818845404</v>
+        <v>-0.012240956</v>
       </c>
       <c r="G15">
-        <v>0.2668842195185722</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="H15">
-        <v>3.539634565328714</v>
+        <v>0.010282672</v>
       </c>
       <c r="I15">
-        <v>0.6961009520903263</v>
+        <v>-0.0017802751</v>
       </c>
       <c r="J15">
-        <v>0.07612010679240608</v>
+        <v>121.14151</v>
       </c>
       <c r="K15">
-        <v>1.697254818845404</v>
+        <v>121.14151</v>
       </c>
       <c r="L15">
-        <v>0.04034612682130259</v>
+        <v>-0.012240956</v>
       </c>
       <c r="M15">
-        <v>0.05823311680685433</v>
+        <v>-0.00576597377</v>
       </c>
       <c r="N15">
-        <v>0.05823311680685433</v>
+        <v>-0.00576597377</v>
       </c>
       <c r="O15">
-        <v>1.218700266314141</v>
+        <v>-0.004437407546666667</v>
       </c>
       <c r="P15">
-        <v>0.6045736841530375</v>
+        <v>40.37665935082</v>
       </c>
       <c r="Q15">
-        <v>0.6045736841530374</v>
+        <v>40.37665935082</v>
       </c>
       <c r="R15">
-        <v>0.877743967826129</v>
+        <v>60.567872013115</v>
       </c>
       <c r="S15">
-        <v>0.877743967826129</v>
+        <v>60.567872013115</v>
       </c>
       <c r="T15">
-        <v>1.052723464899454</v>
+        <v>20.18862854932667</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1420,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0699858135168</v>
+        <v>121.14151</v>
       </c>
       <c r="D16">
-        <v>1.10150024053574</v>
+        <v>0.00070900846</v>
       </c>
       <c r="E16">
-        <v>1.036782521065243</v>
+        <v>0.00070900846</v>
       </c>
       <c r="F16">
-        <v>1.0699858135168</v>
+        <v>-0.012240956</v>
       </c>
       <c r="G16">
-        <v>1.077638792365339</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="H16">
-        <v>1.027538098283375</v>
+        <v>0.010282672</v>
       </c>
       <c r="I16">
-        <v>0.982896253675257</v>
+        <v>-0.0017802751</v>
       </c>
       <c r="J16">
-        <v>1.10150024053574</v>
+        <v>121.14151</v>
       </c>
       <c r="K16">
-        <v>1.0699858135168</v>
+        <v>121.14151</v>
       </c>
       <c r="L16">
-        <v>1.036782521065243</v>
+        <v>-0.012240956</v>
       </c>
       <c r="M16">
-        <v>1.069141380800492</v>
+        <v>-0.00576597377</v>
       </c>
       <c r="N16">
-        <v>1.069141380800492</v>
+        <v>-0.00576597377</v>
       </c>
       <c r="O16">
-        <v>1.055273619961453</v>
+        <v>-0.004437407546666667</v>
       </c>
       <c r="P16">
-        <v>1.069422858372594</v>
+        <v>40.37665935082</v>
       </c>
       <c r="Q16">
-        <v>1.069422858372594</v>
+        <v>40.37665935082</v>
       </c>
       <c r="R16">
-        <v>1.069563597158646</v>
+        <v>60.567872013115</v>
       </c>
       <c r="S16">
-        <v>1.069563597158646</v>
+        <v>60.567872013115</v>
       </c>
       <c r="T16">
-        <v>1.049390286573626</v>
+        <v>20.18862854932667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1482,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.021942369885155</v>
+        <v>-0.013690301</v>
       </c>
       <c r="D17">
-        <v>1.375903714389543</v>
+        <v>0.010449277</v>
       </c>
       <c r="E17">
-        <v>1.066942454692681</v>
+        <v>0.010449277</v>
       </c>
       <c r="F17">
-        <v>1.021942369885155</v>
+        <v>0.018752165</v>
       </c>
       <c r="G17">
-        <v>1.101343739026354</v>
+        <v>-0.010820541</v>
       </c>
       <c r="H17">
-        <v>0.9865295590684509</v>
+        <v>8.457315400000001</v>
       </c>
       <c r="I17">
-        <v>0.9749976282425542</v>
+        <v>0.00078478051</v>
       </c>
       <c r="J17">
-        <v>1.375903714389543</v>
+        <v>-0.013690301</v>
       </c>
       <c r="K17">
-        <v>1.021942369885155</v>
+        <v>-0.013690301</v>
       </c>
       <c r="L17">
-        <v>1.066942454692681</v>
+        <v>0.018752165</v>
       </c>
       <c r="M17">
-        <v>1.221423084541112</v>
+        <v>0.014600721</v>
       </c>
       <c r="N17">
-        <v>1.221423084541112</v>
+        <v>0.014600721</v>
       </c>
       <c r="O17">
-        <v>1.143125242716892</v>
+        <v>0.009995407503333333</v>
       </c>
       <c r="P17">
-        <v>1.154929512989127</v>
+        <v>0.005170380333333334</v>
       </c>
       <c r="Q17">
-        <v>1.154929512989127</v>
+        <v>0.005170380333333334</v>
       </c>
       <c r="R17">
-        <v>1.121682727213134</v>
+        <v>0.0004552100000000002</v>
       </c>
       <c r="S17">
-        <v>1.121682727213134</v>
+        <v>0.0004552100000000002</v>
       </c>
       <c r="T17">
-        <v>1.087943244217456</v>
+        <v>1.410465130085</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1544,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.536937310549204</v>
+        <v>9.128769431760546</v>
       </c>
       <c r="D18">
-        <v>1.531358887581807</v>
+        <v>14.94741682780137</v>
       </c>
       <c r="E18">
-        <v>1.214099971085248</v>
+        <v>14.94741682780137</v>
       </c>
       <c r="F18">
-        <v>1.536937310549204</v>
+        <v>0.005261852099726029</v>
       </c>
       <c r="G18">
-        <v>1.878288793126693</v>
+        <v>0.000338818719780822</v>
       </c>
       <c r="H18">
-        <v>0.7531855683920143</v>
+        <v>0.007498260964383564</v>
       </c>
       <c r="I18">
-        <v>1.002860696645876</v>
+        <v>6.924194788861644</v>
       </c>
       <c r="J18">
-        <v>1.531358887581807</v>
+        <v>9.128769431760546</v>
       </c>
       <c r="K18">
-        <v>1.536937310549204</v>
+        <v>9.128769431760546</v>
       </c>
       <c r="L18">
-        <v>1.214099971085248</v>
+        <v>0.005261852099726029</v>
       </c>
       <c r="M18">
-        <v>1.372729429333527</v>
+        <v>7.476339339950548</v>
       </c>
       <c r="N18">
-        <v>1.372729429333527</v>
+        <v>7.476339339950548</v>
       </c>
       <c r="O18">
-        <v>1.16621480901969</v>
+        <v>7.292291156254247</v>
       </c>
       <c r="P18">
-        <v>1.427465389738753</v>
+        <v>8.027149370553881</v>
       </c>
       <c r="Q18">
-        <v>1.427465389738753</v>
+        <v>8.027149370553881</v>
       </c>
       <c r="R18">
-        <v>1.454833369941366</v>
+        <v>8.302554385855547</v>
       </c>
       <c r="S18">
-        <v>1.454833369941366</v>
+        <v>8.302554385855547</v>
       </c>
       <c r="T18">
-        <v>1.319455204563474</v>
+        <v>5.168913330034575</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1606,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7710474086437374</v>
+        <v>6.77518528468579</v>
       </c>
       <c r="D19">
-        <v>3.376785139210925</v>
+        <v>13.55024100243999</v>
       </c>
       <c r="E19">
-        <v>0.3463967080220701</v>
+        <v>13.55024100243999</v>
       </c>
       <c r="F19">
-        <v>0.7710474086437374</v>
+        <v>3.576545425997369</v>
       </c>
       <c r="G19">
-        <v>2.79096644987684</v>
+        <v>-0.007005507620000001</v>
       </c>
       <c r="H19">
-        <v>0.4829178147737401</v>
+        <v>10.73438975628948</v>
       </c>
       <c r="I19">
-        <v>1.224448754682695</v>
+        <v>0.001342648583157895</v>
       </c>
       <c r="J19">
-        <v>3.376785139210925</v>
+        <v>6.77518528468579</v>
       </c>
       <c r="K19">
-        <v>0.7710474086437374</v>
+        <v>6.77518528468579</v>
       </c>
       <c r="L19">
-        <v>0.3463967080220701</v>
+        <v>3.576545425997369</v>
       </c>
       <c r="M19">
-        <v>1.861590923616498</v>
+        <v>8.56339321421868</v>
       </c>
       <c r="N19">
-        <v>1.861590923616498</v>
+        <v>8.56339321421868</v>
       </c>
       <c r="O19">
-        <v>1.402033220668912</v>
+        <v>5.709376359006839</v>
       </c>
       <c r="P19">
-        <v>1.498076418625578</v>
+        <v>7.967323904374383</v>
       </c>
       <c r="Q19">
-        <v>1.498076418625577</v>
+        <v>7.967323904374383</v>
       </c>
       <c r="R19">
-        <v>1.316319166130117</v>
+        <v>7.669289249452235</v>
       </c>
       <c r="S19">
-        <v>1.316319166130117</v>
+        <v>7.669289249452235</v>
       </c>
       <c r="T19">
-        <v>1.498760379201668</v>
+        <v>5.771783101729297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>6.77518528468579</v>
+      </c>
+      <c r="D20">
+        <v>13.55024100243999</v>
+      </c>
+      <c r="E20">
+        <v>13.55024100243999</v>
+      </c>
+      <c r="F20">
+        <v>3.576545425997369</v>
+      </c>
+      <c r="G20">
+        <v>-0.007005507620000001</v>
+      </c>
+      <c r="H20">
+        <v>10.73438975628948</v>
+      </c>
+      <c r="I20">
+        <v>0.001342648583157895</v>
+      </c>
+      <c r="J20">
+        <v>6.77518528468579</v>
+      </c>
+      <c r="K20">
+        <v>6.77518528468579</v>
+      </c>
+      <c r="L20">
+        <v>3.576545425997369</v>
+      </c>
+      <c r="M20">
+        <v>8.56339321421868</v>
+      </c>
+      <c r="N20">
+        <v>8.56339321421868</v>
+      </c>
+      <c r="O20">
+        <v>5.709376359006839</v>
+      </c>
+      <c r="P20">
+        <v>7.967323904374383</v>
+      </c>
+      <c r="Q20">
+        <v>7.967323904374383</v>
+      </c>
+      <c r="R20">
+        <v>7.669289249452235</v>
+      </c>
+      <c r="S20">
+        <v>7.669289249452235</v>
+      </c>
+      <c r="T20">
+        <v>5.771783101729297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.003429442487536849</v>
+      </c>
+      <c r="D21">
+        <v>0.003550294423994047</v>
+      </c>
+      <c r="E21">
+        <v>0.003550294423994047</v>
+      </c>
+      <c r="F21">
+        <v>-0.001502850586985303</v>
+      </c>
+      <c r="G21">
+        <v>3.329147908393139</v>
+      </c>
+      <c r="H21">
+        <v>0.4085801478221999</v>
+      </c>
+      <c r="I21">
+        <v>-0.001791996581089031</v>
+      </c>
+      <c r="J21">
+        <v>0.003429442487536849</v>
+      </c>
+      <c r="K21">
+        <v>0.003429442487536849</v>
+      </c>
+      <c r="L21">
+        <v>-0.001502850586985303</v>
+      </c>
+      <c r="M21">
+        <v>0.001023721918504372</v>
+      </c>
+      <c r="N21">
+        <v>0.001023721918504372</v>
+      </c>
+      <c r="O21">
+        <v>8.514908530657113E-05</v>
+      </c>
+      <c r="P21">
+        <v>0.001825628774848531</v>
+      </c>
+      <c r="Q21">
+        <v>0.001825628774848531</v>
+      </c>
+      <c r="R21">
+        <v>0.002226582203020611</v>
+      </c>
+      <c r="S21">
+        <v>0.002226582203020611</v>
+      </c>
+      <c r="T21">
+        <v>0.623568824326466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.697254818845401</v>
+      </c>
+      <c r="D22">
+        <v>0.07612010679240608</v>
+      </c>
+      <c r="E22">
+        <v>0.07612010679240608</v>
+      </c>
+      <c r="F22">
+        <v>0.04034612682130258</v>
+      </c>
+      <c r="G22">
+        <v>0.6961009520903263</v>
+      </c>
+      <c r="H22">
+        <v>0.2668842195185722</v>
+      </c>
+      <c r="I22">
+        <v>3.539634565328714</v>
+      </c>
+      <c r="J22">
+        <v>1.697254818845401</v>
+      </c>
+      <c r="K22">
+        <v>1.697254818845401</v>
+      </c>
+      <c r="L22">
+        <v>0.04034612682130258</v>
+      </c>
+      <c r="M22">
+        <v>0.05823311680685433</v>
+      </c>
+      <c r="N22">
+        <v>0.05823311680685433</v>
+      </c>
+      <c r="O22">
+        <v>1.218700266314141</v>
+      </c>
+      <c r="P22">
+        <v>0.6045736841530366</v>
+      </c>
+      <c r="Q22">
+        <v>0.6045736841530365</v>
+      </c>
+      <c r="R22">
+        <v>0.8777439678261276</v>
+      </c>
+      <c r="S22">
+        <v>0.8777439678261276</v>
+      </c>
+      <c r="T22">
+        <v>1.052723464899454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>5.66284010751539</v>
+      </c>
+      <c r="D23">
+        <v>0.001299818629037552</v>
+      </c>
+      <c r="E23">
+        <v>0.001299818629037552</v>
+      </c>
+      <c r="F23">
+        <v>-0.001364000895071943</v>
+      </c>
+      <c r="G23">
+        <v>1.199397461479271</v>
+      </c>
+      <c r="H23">
+        <v>0.0009333249709170005</v>
+      </c>
+      <c r="I23">
+        <v>1.442004732701281</v>
+      </c>
+      <c r="J23">
+        <v>5.66284010751539</v>
+      </c>
+      <c r="K23">
+        <v>5.66284010751539</v>
+      </c>
+      <c r="L23">
+        <v>-0.001364000895071943</v>
+      </c>
+      <c r="M23">
+        <v>-3.20911330171955E-05</v>
+      </c>
+      <c r="N23">
+        <v>-3.20911330171955E-05</v>
+      </c>
+      <c r="O23">
+        <v>0.4806468501450822</v>
+      </c>
+      <c r="P23">
+        <v>1.887591975083118</v>
+      </c>
+      <c r="Q23">
+        <v>1.887591975083118</v>
+      </c>
+      <c r="R23">
+        <v>2.831404008191186</v>
+      </c>
+      <c r="S23">
+        <v>2.831404008191186</v>
+      </c>
+      <c r="T23">
+        <v>1.384185240733471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>-0.003057026860160005</v>
+      </c>
+      <c r="D24">
+        <v>0.07655865010261245</v>
+      </c>
+      <c r="E24">
+        <v>0.07655865010261245</v>
+      </c>
+      <c r="F24">
+        <v>3.85831963452449</v>
+      </c>
+      <c r="G24">
+        <v>1.104380602830818</v>
+      </c>
+      <c r="H24">
+        <v>0.005684776780114497</v>
+      </c>
+      <c r="I24">
+        <v>0.002382954125453752</v>
+      </c>
+      <c r="J24">
+        <v>-0.003057026860160005</v>
+      </c>
+      <c r="K24">
+        <v>-0.003057026860160005</v>
+      </c>
+      <c r="L24">
+        <v>3.85831963452449</v>
+      </c>
+      <c r="M24">
+        <v>1.967439142313551</v>
+      </c>
+      <c r="N24">
+        <v>1.967439142313551</v>
+      </c>
+      <c r="O24">
+        <v>1.312420412917519</v>
+      </c>
+      <c r="P24">
+        <v>1.310607085922314</v>
+      </c>
+      <c r="Q24">
+        <v>1.310607085922314</v>
+      </c>
+      <c r="R24">
+        <v>0.9821910577266957</v>
+      </c>
+      <c r="S24">
+        <v>0.9821910577266957</v>
+      </c>
+      <c r="T24">
+        <v>0.8407115985838881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.003429442487536846</v>
+      </c>
+      <c r="D25">
+        <v>0.003550294423994053</v>
+      </c>
+      <c r="E25">
+        <v>0.003550294423994053</v>
+      </c>
+      <c r="F25">
+        <v>-0.001502850586985293</v>
+      </c>
+      <c r="G25">
+        <v>3.329147908393139</v>
+      </c>
+      <c r="H25">
+        <v>0.4085801478222001</v>
+      </c>
+      <c r="I25">
+        <v>-0.001791996581089037</v>
+      </c>
+      <c r="J25">
+        <v>0.003429442487536846</v>
+      </c>
+      <c r="K25">
+        <v>0.003429442487536846</v>
+      </c>
+      <c r="L25">
+        <v>-0.001502850586985293</v>
+      </c>
+      <c r="M25">
+        <v>0.00102372191850438</v>
+      </c>
+      <c r="N25">
+        <v>0.00102372191850438</v>
+      </c>
+      <c r="O25">
+        <v>8.514908530657438E-05</v>
+      </c>
+      <c r="P25">
+        <v>0.001825628774848535</v>
+      </c>
+      <c r="Q25">
+        <v>0.001825628774848535</v>
+      </c>
+      <c r="R25">
+        <v>0.002226582203020613</v>
+      </c>
+      <c r="S25">
+        <v>0.002226582203020613</v>
+      </c>
+      <c r="T25">
+        <v>0.623568824326466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.697254818845405</v>
+      </c>
+      <c r="D26">
+        <v>0.07612010679242513</v>
+      </c>
+      <c r="E26">
+        <v>0.07612010679242513</v>
+      </c>
+      <c r="F26">
+        <v>0.04034612682130267</v>
+      </c>
+      <c r="G26">
+        <v>0.6961009520903245</v>
+      </c>
+      <c r="H26">
+        <v>0.2668842195185726</v>
+      </c>
+      <c r="I26">
+        <v>3.539634565328714</v>
+      </c>
+      <c r="J26">
+        <v>1.697254818845405</v>
+      </c>
+      <c r="K26">
+        <v>1.697254818845405</v>
+      </c>
+      <c r="L26">
+        <v>0.04034612682130267</v>
+      </c>
+      <c r="M26">
+        <v>0.0582331168068639</v>
+      </c>
+      <c r="N26">
+        <v>0.0582331168068639</v>
+      </c>
+      <c r="O26">
+        <v>1.218700266314147</v>
+      </c>
+      <c r="P26">
+        <v>0.6045736841530444</v>
+      </c>
+      <c r="Q26">
+        <v>0.6045736841530442</v>
+      </c>
+      <c r="R26">
+        <v>0.8777439678261345</v>
+      </c>
+      <c r="S26">
+        <v>0.8777439678261345</v>
+      </c>
+      <c r="T26">
+        <v>1.052723464899457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>-0.005718491557776391</v>
+      </c>
+      <c r="D27">
+        <v>14.25126749849808</v>
+      </c>
+      <c r="E27">
+        <v>14.25126749849808</v>
+      </c>
+      <c r="F27">
+        <v>2.171919084534544</v>
+      </c>
+      <c r="G27">
+        <v>-0.006321174778552237</v>
+      </c>
+      <c r="H27">
+        <v>-0.005289609818362497</v>
+      </c>
+      <c r="I27">
+        <v>10.71307717366565</v>
+      </c>
+      <c r="J27">
+        <v>-0.005718491557776391</v>
+      </c>
+      <c r="K27">
+        <v>-0.005718491557776391</v>
+      </c>
+      <c r="L27">
+        <v>2.171919084534544</v>
+      </c>
+      <c r="M27">
+        <v>8.211593291516312</v>
+      </c>
+      <c r="N27">
+        <v>8.211593291516312</v>
+      </c>
+      <c r="O27">
+        <v>9.045421252232757</v>
+      </c>
+      <c r="P27">
+        <v>5.472489363824949</v>
+      </c>
+      <c r="Q27">
+        <v>5.472489363824948</v>
+      </c>
+      <c r="R27">
+        <v>4.102937399979267</v>
+      </c>
+      <c r="S27">
+        <v>4.102937399979267</v>
+      </c>
+      <c r="T27">
+        <v>4.519822413423929</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>-0.002377520291847696</v>
+      </c>
+      <c r="D28">
+        <v>3.496886811922516</v>
+      </c>
+      <c r="E28">
+        <v>3.496886811922516</v>
+      </c>
+      <c r="F28">
+        <v>0.7661510322084321</v>
+      </c>
+      <c r="G28">
+        <v>0.743772608987609</v>
+      </c>
+      <c r="H28">
+        <v>16.46714932971365</v>
+      </c>
+      <c r="I28">
+        <v>0.02824488313543952</v>
+      </c>
+      <c r="J28">
+        <v>-0.002377520291847696</v>
+      </c>
+      <c r="K28">
+        <v>-0.002377520291847696</v>
+      </c>
+      <c r="L28">
+        <v>0.7661510322084321</v>
+      </c>
+      <c r="M28">
+        <v>2.131518922065474</v>
+      </c>
+      <c r="N28">
+        <v>2.131518922065474</v>
+      </c>
+      <c r="O28">
+        <v>1.430427575755463</v>
+      </c>
+      <c r="P28">
+        <v>1.420220107946367</v>
+      </c>
+      <c r="Q28">
+        <v>1.420220107946367</v>
+      </c>
+      <c r="R28">
+        <v>1.064570700886813</v>
+      </c>
+      <c r="S28">
+        <v>1.064570700886813</v>
+      </c>
+      <c r="T28">
+        <v>3.5833045242793</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>-0.002652606109622321</v>
+      </c>
+      <c r="D29">
+        <v>-0.008802696192055127</v>
+      </c>
+      <c r="E29">
+        <v>-0.008802696192055127</v>
+      </c>
+      <c r="F29">
+        <v>1.716321396839036</v>
+      </c>
+      <c r="G29">
+        <v>1.076342801926589</v>
+      </c>
+      <c r="H29">
+        <v>36.25399588862548</v>
+      </c>
+      <c r="I29">
+        <v>0.007088354832514044</v>
+      </c>
+      <c r="J29">
+        <v>-0.002652606109622321</v>
+      </c>
+      <c r="K29">
+        <v>-0.002652606109622321</v>
+      </c>
+      <c r="L29">
+        <v>1.716321396839036</v>
+      </c>
+      <c r="M29">
+        <v>0.8537593503234906</v>
+      </c>
+      <c r="N29">
+        <v>0.8537593503234906</v>
+      </c>
+      <c r="O29">
+        <v>0.5715356851598318</v>
+      </c>
+      <c r="P29">
+        <v>0.5682886981791196</v>
+      </c>
+      <c r="Q29">
+        <v>0.5682886981791196</v>
+      </c>
+      <c r="R29">
+        <v>0.4255533721069341</v>
+      </c>
+      <c r="S29">
+        <v>0.4255533721069341</v>
+      </c>
+      <c r="T29">
+        <v>6.507048856653655</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/ShearF-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/ShearF-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.297695032267322</v>
+        <v>0.8040390433200131</v>
       </c>
       <c r="D4">
-        <v>1.021597117278332</v>
+        <v>8.674233318104195</v>
       </c>
       <c r="E4">
-        <v>1.021597117278332</v>
+        <v>8.674233318104195</v>
       </c>
       <c r="F4">
-        <v>0.9238486189422002</v>
+        <v>0.8583003035756691</v>
       </c>
       <c r="G4">
-        <v>0.9209517647361799</v>
+        <v>0.8103288982533677</v>
       </c>
       <c r="H4">
-        <v>1.118912271658837</v>
+        <v>0.8283041187609789</v>
       </c>
       <c r="I4">
-        <v>0.8541439947632339</v>
+        <v>1.138623088590934</v>
       </c>
       <c r="J4">
-        <v>2.297695032267322</v>
+        <v>0.8040390433200131</v>
       </c>
       <c r="K4">
-        <v>2.297695032267322</v>
+        <v>0.8040390433200131</v>
       </c>
       <c r="L4">
-        <v>0.9238486189422002</v>
+        <v>0.8583003035756691</v>
       </c>
       <c r="M4">
-        <v>0.9727228681102663</v>
+        <v>4.766266810839932</v>
       </c>
       <c r="N4">
-        <v>0.9727228681102663</v>
+        <v>4.766266810839932</v>
       </c>
       <c r="O4">
-        <v>0.9331965769945888</v>
+        <v>3.557052236756933</v>
       </c>
       <c r="P4">
-        <v>1.414380256162618</v>
+        <v>3.445524221666626</v>
       </c>
       <c r="Q4">
-        <v>1.414380256162618</v>
+        <v>3.445524221666626</v>
       </c>
       <c r="R4">
-        <v>1.635208950188794</v>
+        <v>2.785152927079973</v>
       </c>
       <c r="S4">
-        <v>1.635208950188794</v>
+        <v>2.785152927079973</v>
       </c>
       <c r="T4">
-        <v>1.189524799941017</v>
+        <v>2.185638128434193</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.103131782726154</v>
+        <v>4.489662963419237</v>
       </c>
       <c r="D5">
-        <v>14.55149167597298</v>
+        <v>1.386823423688272</v>
       </c>
       <c r="E5">
-        <v>14.55149167597298</v>
+        <v>1.386823423688272</v>
       </c>
       <c r="F5">
-        <v>0.85228720937766</v>
+        <v>3.950702620497632</v>
       </c>
       <c r="G5">
-        <v>0.7583933645279194</v>
+        <v>-0.008058138050511528</v>
       </c>
       <c r="H5">
-        <v>0.9225711430150583</v>
+        <v>11.87494266293016</v>
       </c>
       <c r="I5">
-        <v>1.212323787818476</v>
+        <v>0.002904990094898592</v>
       </c>
       <c r="J5">
-        <v>1.103131782726154</v>
+        <v>4.489662963419237</v>
       </c>
       <c r="K5">
-        <v>1.103131782726154</v>
+        <v>4.489662963419237</v>
       </c>
       <c r="L5">
-        <v>0.85228720937766</v>
+        <v>3.950702620497632</v>
       </c>
       <c r="M5">
-        <v>7.701889442675322</v>
+        <v>2.668763022092952</v>
       </c>
       <c r="N5">
-        <v>7.701889442675322</v>
+        <v>2.668763022092952</v>
       </c>
       <c r="O5">
-        <v>5.538700891056373</v>
+        <v>1.780143678093601</v>
       </c>
       <c r="P5">
-        <v>5.502303556025599</v>
+        <v>3.275729669201713</v>
       </c>
       <c r="Q5">
-        <v>5.502303556025598</v>
+        <v>3.275729669201713</v>
       </c>
       <c r="R5">
-        <v>4.402510612700738</v>
+        <v>3.579212992756094</v>
       </c>
       <c r="S5">
-        <v>4.402510612700738</v>
+        <v>3.579212992756094</v>
       </c>
       <c r="T5">
-        <v>3.233366493906375</v>
+        <v>3.616163087096616</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4427245684866227</v>
+        <v>2.297695032267322</v>
       </c>
       <c r="D6">
-        <v>125.1361841735616</v>
+        <v>1.021597117278332</v>
       </c>
       <c r="E6">
-        <v>125.1361841735616</v>
+        <v>1.021597117278332</v>
       </c>
       <c r="F6">
-        <v>0.4384187047996042</v>
+        <v>0.9238486189422002</v>
       </c>
       <c r="G6">
-        <v>0.4143614075564635</v>
+        <v>0.9209517647361799</v>
       </c>
       <c r="H6">
-        <v>0.4113257030183502</v>
+        <v>1.118912271658837</v>
       </c>
       <c r="I6">
-        <v>0.5421099595269819</v>
+        <v>0.8541439947632339</v>
       </c>
       <c r="J6">
-        <v>0.4427245684866227</v>
+        <v>2.297695032267322</v>
       </c>
       <c r="K6">
-        <v>0.4427245684866227</v>
+        <v>2.297695032267322</v>
       </c>
       <c r="L6">
-        <v>0.4384187047996042</v>
+        <v>0.9238486189422002</v>
       </c>
       <c r="M6">
-        <v>62.78730143918059</v>
+        <v>0.9727228681102663</v>
       </c>
       <c r="N6">
-        <v>62.78730143918059</v>
+        <v>0.9727228681102663</v>
       </c>
       <c r="O6">
-        <v>42.03890427929606</v>
+        <v>0.9331965769945888</v>
       </c>
       <c r="P6">
-        <v>42.00577581561593</v>
+        <v>1.414380256162618</v>
       </c>
       <c r="Q6">
-        <v>42.00577581561593</v>
+        <v>1.414380256162618</v>
       </c>
       <c r="R6">
-        <v>31.61501300383361</v>
+        <v>1.635208950188794</v>
       </c>
       <c r="S6">
-        <v>31.61501300383361</v>
+        <v>1.635208950188794</v>
       </c>
       <c r="T6">
-        <v>21.23085408615827</v>
+        <v>1.189524799941017</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.339531106037121</v>
+        <v>1.103131782726154</v>
       </c>
       <c r="D7">
-        <v>1.725075798310838</v>
+        <v>14.55149167597298</v>
       </c>
       <c r="E7">
-        <v>1.725075798310838</v>
+        <v>14.55149167597298</v>
       </c>
       <c r="F7">
-        <v>1.046891277149952</v>
+        <v>0.85228720937766</v>
       </c>
       <c r="G7">
-        <v>0.9361689194299634</v>
+        <v>0.7583933645279194</v>
       </c>
       <c r="H7">
-        <v>1.029478878444288</v>
+        <v>0.9225711430150583</v>
       </c>
       <c r="I7">
-        <v>1.263458442935324</v>
+        <v>1.212323787818476</v>
       </c>
       <c r="J7">
-        <v>1.339531106037121</v>
+        <v>1.103131782726154</v>
       </c>
       <c r="K7">
-        <v>1.339531106037121</v>
+        <v>1.103131782726154</v>
       </c>
       <c r="L7">
-        <v>1.046891277149952</v>
+        <v>0.85228720937766</v>
       </c>
       <c r="M7">
-        <v>1.385983537730395</v>
+        <v>7.701889442675322</v>
       </c>
       <c r="N7">
-        <v>1.385983537730395</v>
+        <v>7.701889442675322</v>
       </c>
       <c r="O7">
-        <v>1.345141839465371</v>
+        <v>5.538700891056373</v>
       </c>
       <c r="P7">
-        <v>1.370499393832637</v>
+        <v>5.502303556025599</v>
       </c>
       <c r="Q7">
-        <v>1.370499393832637</v>
+        <v>5.502303556025598</v>
       </c>
       <c r="R7">
-        <v>1.362757321883758</v>
+        <v>4.402510612700738</v>
       </c>
       <c r="S7">
-        <v>1.362757321883758</v>
+        <v>4.402510612700738</v>
       </c>
       <c r="T7">
-        <v>1.223434070384581</v>
+        <v>3.233366493906375</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.021942369885157</v>
+        <v>0.4427245684866227</v>
       </c>
       <c r="D8">
-        <v>1.375903714389545</v>
+        <v>125.1361841735616</v>
       </c>
       <c r="E8">
-        <v>1.375903714389545</v>
+        <v>125.1361841735616</v>
       </c>
       <c r="F8">
-        <v>1.066942454692681</v>
+        <v>0.4384187047996042</v>
       </c>
       <c r="G8">
-        <v>0.974997628242552</v>
+        <v>0.4143614075564635</v>
       </c>
       <c r="H8">
-        <v>1.101343739026354</v>
+        <v>0.4113257030183502</v>
       </c>
       <c r="I8">
-        <v>0.9865295590684533</v>
+        <v>0.5421099595269819</v>
       </c>
       <c r="J8">
-        <v>1.021942369885157</v>
+        <v>0.4427245684866227</v>
       </c>
       <c r="K8">
-        <v>1.021942369885157</v>
+        <v>0.4427245684866227</v>
       </c>
       <c r="L8">
-        <v>1.066942454692681</v>
+        <v>0.4384187047996042</v>
       </c>
       <c r="M8">
-        <v>1.221423084541113</v>
+        <v>62.78730143918059</v>
       </c>
       <c r="N8">
-        <v>1.221423084541113</v>
+        <v>62.78730143918059</v>
       </c>
       <c r="O8">
-        <v>1.143125242716893</v>
+        <v>42.03890427929606</v>
       </c>
       <c r="P8">
-        <v>1.154929512989128</v>
+        <v>42.00577581561593</v>
       </c>
       <c r="Q8">
-        <v>1.154929512989128</v>
+        <v>42.00577581561593</v>
       </c>
       <c r="R8">
-        <v>1.121682727213135</v>
+        <v>31.61501300383361</v>
       </c>
       <c r="S8">
-        <v>1.121682727213135</v>
+        <v>31.61501300383361</v>
       </c>
       <c r="T8">
-        <v>1.087943244217457</v>
+        <v>21.23085408615827</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.614038120730488</v>
+        <v>1.339531106037121</v>
       </c>
       <c r="D9">
-        <v>2.990248636793881</v>
+        <v>1.725075798310838</v>
       </c>
       <c r="E9">
-        <v>2.990248636793881</v>
+        <v>1.725075798310838</v>
       </c>
       <c r="F9">
-        <v>1.198754076655346</v>
+        <v>1.046891277149952</v>
       </c>
       <c r="G9">
-        <v>0.832651845725387</v>
+        <v>0.9361689194299634</v>
       </c>
       <c r="H9">
-        <v>1.453259461500786</v>
+        <v>1.029478878444288</v>
       </c>
       <c r="I9">
-        <v>1.681010733892708</v>
+        <v>1.263458442935324</v>
       </c>
       <c r="J9">
-        <v>1.614038120730488</v>
+        <v>1.339531106037121</v>
       </c>
       <c r="K9">
-        <v>1.614038120730488</v>
+        <v>1.339531106037121</v>
       </c>
       <c r="L9">
-        <v>1.198754076655346</v>
+        <v>1.046891277149952</v>
       </c>
       <c r="M9">
-        <v>2.094501356724613</v>
+        <v>1.385983537730395</v>
       </c>
       <c r="N9">
-        <v>2.094501356724613</v>
+        <v>1.385983537730395</v>
       </c>
       <c r="O9">
-        <v>1.956671149113978</v>
+        <v>1.345141839465371</v>
       </c>
       <c r="P9">
-        <v>1.934346944726571</v>
+        <v>1.370499393832637</v>
       </c>
       <c r="Q9">
-        <v>1.934346944726572</v>
+        <v>1.370499393832637</v>
       </c>
       <c r="R9">
-        <v>1.854269738727551</v>
+        <v>1.362757321883758</v>
       </c>
       <c r="S9">
-        <v>1.854269738727551</v>
+        <v>1.362757321883758</v>
       </c>
       <c r="T9">
-        <v>1.628327145883099</v>
+        <v>1.223434070384581</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.4718574610394128</v>
+        <v>1.021942369885157</v>
       </c>
       <c r="D10">
-        <v>126.8212155192449</v>
+        <v>1.375903714389545</v>
       </c>
       <c r="E10">
-        <v>126.8212155192449</v>
+        <v>1.375903714389545</v>
       </c>
       <c r="F10">
-        <v>0.2913048477176903</v>
+        <v>1.066942454692681</v>
       </c>
       <c r="G10">
-        <v>0.3915714702033051</v>
+        <v>0.974997628242552</v>
       </c>
       <c r="H10">
-        <v>0.6412485022570845</v>
+        <v>1.101343739026354</v>
       </c>
       <c r="I10">
-        <v>0.4863095866338932</v>
+        <v>0.9865295590684533</v>
       </c>
       <c r="J10">
-        <v>0.4718574610394128</v>
+        <v>1.021942369885157</v>
       </c>
       <c r="K10">
-        <v>0.4718574610394128</v>
+        <v>1.021942369885157</v>
       </c>
       <c r="L10">
-        <v>0.2913048477176903</v>
+        <v>1.066942454692681</v>
       </c>
       <c r="M10">
-        <v>63.55626018348129</v>
+        <v>1.221423084541113</v>
       </c>
       <c r="N10">
-        <v>63.55626018348129</v>
+        <v>1.221423084541113</v>
       </c>
       <c r="O10">
-        <v>42.53294331786549</v>
+        <v>1.143125242716893</v>
       </c>
       <c r="P10">
-        <v>42.52812594266732</v>
+        <v>1.154929512989128</v>
       </c>
       <c r="Q10">
-        <v>42.52812594266732</v>
+        <v>1.154929512989128</v>
       </c>
       <c r="R10">
-        <v>32.01405882226035</v>
+        <v>1.121682727213135</v>
       </c>
       <c r="S10">
-        <v>32.01405882226035</v>
+        <v>1.121682727213135</v>
       </c>
       <c r="T10">
-        <v>21.51725123118271</v>
+        <v>1.087943244217457</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.555423626087605</v>
+        <v>1.614038120730488</v>
       </c>
       <c r="D11">
-        <v>0.9818978849006228</v>
+        <v>2.990248636793881</v>
       </c>
       <c r="E11">
-        <v>0.9818978849006228</v>
+        <v>2.990248636793881</v>
       </c>
       <c r="F11">
-        <v>1.005396971842</v>
+        <v>1.198754076655346</v>
       </c>
       <c r="G11">
-        <v>1.003887375444549</v>
+        <v>0.832651845725387</v>
       </c>
       <c r="H11">
-        <v>0.5663234093479681</v>
+        <v>1.453259461500786</v>
       </c>
       <c r="I11">
-        <v>0.9471925765317998</v>
+        <v>1.681010733892708</v>
       </c>
       <c r="J11">
-        <v>2.555423626087605</v>
+        <v>1.614038120730488</v>
       </c>
       <c r="K11">
-        <v>2.555423626087605</v>
+        <v>1.614038120730488</v>
       </c>
       <c r="L11">
-        <v>1.005396971842</v>
+        <v>1.198754076655346</v>
       </c>
       <c r="M11">
-        <v>0.9936474283713115</v>
+        <v>2.094501356724613</v>
       </c>
       <c r="N11">
-        <v>0.9936474283713115</v>
+        <v>2.094501356724613</v>
       </c>
       <c r="O11">
-        <v>0.9781624777581409</v>
+        <v>1.956671149113978</v>
       </c>
       <c r="P11">
-        <v>1.514239494276743</v>
+        <v>1.934346944726571</v>
       </c>
       <c r="Q11">
-        <v>1.514239494276742</v>
+        <v>1.934346944726572</v>
       </c>
       <c r="R11">
-        <v>1.774535527229458</v>
+        <v>1.854269738727551</v>
       </c>
       <c r="S11">
-        <v>1.774535527229458</v>
+        <v>1.854269738727551</v>
       </c>
       <c r="T11">
-        <v>1.176686974025757</v>
+        <v>1.628327145883099</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8664482921988208</v>
+        <v>0.4718574610394128</v>
       </c>
       <c r="D12">
-        <v>20.0412283551049</v>
+        <v>126.8212155192449</v>
       </c>
       <c r="E12">
-        <v>20.0412283551049</v>
+        <v>126.8212155192449</v>
       </c>
       <c r="F12">
-        <v>0.6141309304186652</v>
+        <v>0.2913048477176903</v>
       </c>
       <c r="G12">
-        <v>0.7938076481545802</v>
+        <v>0.3915714702033051</v>
       </c>
       <c r="H12">
-        <v>1.347411825733389</v>
+        <v>0.6412485022570845</v>
       </c>
       <c r="I12">
-        <v>0.8947097696683979</v>
+        <v>0.4863095866338932</v>
       </c>
       <c r="J12">
-        <v>0.8664482921988208</v>
+        <v>0.4718574610394128</v>
       </c>
       <c r="K12">
-        <v>0.8664482921988208</v>
+        <v>0.4718574610394128</v>
       </c>
       <c r="L12">
-        <v>0.6141309304186652</v>
+        <v>0.2913048477176903</v>
       </c>
       <c r="M12">
-        <v>10.32767964276178</v>
+        <v>63.55626018348129</v>
       </c>
       <c r="N12">
-        <v>10.32767964276178</v>
+        <v>63.55626018348129</v>
       </c>
       <c r="O12">
-        <v>7.183356351730652</v>
+        <v>42.53294331786549</v>
       </c>
       <c r="P12">
-        <v>7.173935859240793</v>
+        <v>42.52812594266732</v>
       </c>
       <c r="Q12">
-        <v>7.173935859240793</v>
+        <v>42.52812594266732</v>
       </c>
       <c r="R12">
-        <v>5.597063967480301</v>
+        <v>32.01405882226035</v>
       </c>
       <c r="S12">
-        <v>5.597063967480301</v>
+        <v>32.01405882226035</v>
       </c>
       <c r="T12">
-        <v>4.092956136879791</v>
+        <v>21.51725123118271</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.391705795735313</v>
+        <v>2.555423626087605</v>
       </c>
       <c r="D13">
-        <v>0.754316028042879</v>
+        <v>0.9818978849006228</v>
       </c>
       <c r="E13">
-        <v>0.754316028042879</v>
+        <v>0.9818978849006228</v>
       </c>
       <c r="F13">
-        <v>0.8114804322982545</v>
+        <v>1.005396971842</v>
       </c>
       <c r="G13">
-        <v>1.105857356164798</v>
+        <v>1.003887375444549</v>
       </c>
       <c r="H13">
-        <v>2.172339098839937</v>
+        <v>0.5663234093479681</v>
       </c>
       <c r="I13">
-        <v>0.6526408726711388</v>
+        <v>0.9471925765317998</v>
       </c>
       <c r="J13">
-        <v>1.391705795735313</v>
+        <v>2.555423626087605</v>
       </c>
       <c r="K13">
-        <v>1.391705795735313</v>
+        <v>2.555423626087605</v>
       </c>
       <c r="L13">
-        <v>0.8114804322982545</v>
+        <v>1.005396971842</v>
       </c>
       <c r="M13">
-        <v>0.7828982301705667</v>
+        <v>0.9936474283713115</v>
       </c>
       <c r="N13">
-        <v>0.7828982301705667</v>
+        <v>0.9936474283713115</v>
       </c>
       <c r="O13">
-        <v>0.7394791110040907</v>
+        <v>0.9781624777581409</v>
       </c>
       <c r="P13">
-        <v>0.9858340853588156</v>
+        <v>1.514239494276743</v>
       </c>
       <c r="Q13">
-        <v>0.9858340853588156</v>
+        <v>1.514239494276742</v>
       </c>
       <c r="R13">
-        <v>1.08730201295294</v>
+        <v>1.774535527229458</v>
       </c>
       <c r="S13">
-        <v>1.08730201295294</v>
+        <v>1.774535527229458</v>
       </c>
       <c r="T13">
-        <v>1.148056597292053</v>
+        <v>1.176686974025757</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.0007090084299999996</v>
+        <v>0.8664482921988208</v>
       </c>
       <c r="D14">
-        <v>242.2791099999998</v>
+        <v>20.0412283551049</v>
       </c>
       <c r="E14">
-        <v>242.2791099999998</v>
+        <v>20.0412283551049</v>
       </c>
       <c r="F14">
-        <v>-0.0009775087999999992</v>
+        <v>0.6141309304186652</v>
       </c>
       <c r="G14">
-        <v>0.009084998199999982</v>
+        <v>0.7938076481545802</v>
       </c>
       <c r="H14">
-        <v>0.01191020499999998</v>
+        <v>1.347411825733389</v>
       </c>
       <c r="I14">
-        <v>-0.01236578099999999</v>
+        <v>0.8947097696683979</v>
       </c>
       <c r="J14">
-        <v>0.0007090084299999996</v>
+        <v>0.8664482921988208</v>
       </c>
       <c r="K14">
-        <v>0.0007090084299999996</v>
+        <v>0.8664482921988208</v>
       </c>
       <c r="L14">
-        <v>-0.0009775087999999992</v>
+        <v>0.6141309304186652</v>
       </c>
       <c r="M14">
-        <v>121.1390662455999</v>
+        <v>10.32767964276178</v>
       </c>
       <c r="N14">
-        <v>121.1390662455999</v>
+        <v>10.32767964276178</v>
       </c>
       <c r="O14">
-        <v>80.75525557006661</v>
+        <v>7.183356351730652</v>
       </c>
       <c r="P14">
-        <v>80.75961383320994</v>
+        <v>7.173935859240793</v>
       </c>
       <c r="Q14">
-        <v>80.75961383320994</v>
+        <v>7.173935859240793</v>
       </c>
       <c r="R14">
-        <v>60.56988762701496</v>
+        <v>5.597063967480301</v>
       </c>
       <c r="S14">
-        <v>60.56988762701496</v>
+        <v>5.597063967480301</v>
       </c>
       <c r="T14">
-        <v>40.3812451536383</v>
+        <v>4.092956136879791</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>121.14151</v>
+        <v>1.391705795735313</v>
       </c>
       <c r="D15">
-        <v>0.00070900846</v>
+        <v>0.754316028042879</v>
       </c>
       <c r="E15">
-        <v>0.00070900846</v>
+        <v>0.754316028042879</v>
       </c>
       <c r="F15">
-        <v>-0.012240956</v>
+        <v>0.8114804322982545</v>
       </c>
       <c r="G15">
-        <v>-0.0067091534</v>
+        <v>1.105857356164798</v>
       </c>
       <c r="H15">
-        <v>0.010282672</v>
+        <v>2.172339098839937</v>
       </c>
       <c r="I15">
-        <v>-0.0017802751</v>
+        <v>0.6526408726711388</v>
       </c>
       <c r="J15">
-        <v>121.14151</v>
+        <v>1.391705795735313</v>
       </c>
       <c r="K15">
-        <v>121.14151</v>
+        <v>1.391705795735313</v>
       </c>
       <c r="L15">
-        <v>-0.012240956</v>
+        <v>0.8114804322982545</v>
       </c>
       <c r="M15">
-        <v>-0.00576597377</v>
+        <v>0.7828982301705667</v>
       </c>
       <c r="N15">
-        <v>-0.00576597377</v>
+        <v>0.7828982301705667</v>
       </c>
       <c r="O15">
-        <v>-0.004437407546666667</v>
+        <v>0.7394791110040907</v>
       </c>
       <c r="P15">
-        <v>40.37665935082</v>
+        <v>0.9858340853588156</v>
       </c>
       <c r="Q15">
-        <v>40.37665935082</v>
+        <v>0.9858340853588156</v>
       </c>
       <c r="R15">
-        <v>60.567872013115</v>
+        <v>1.08730201295294</v>
       </c>
       <c r="S15">
-        <v>60.567872013115</v>
+        <v>1.08730201295294</v>
       </c>
       <c r="T15">
-        <v>20.18862854932667</v>
+        <v>1.148056597292053</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>121.14151</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="D16">
-        <v>0.00070900846</v>
+        <v>242.2791099999998</v>
       </c>
       <c r="E16">
-        <v>0.00070900846</v>
+        <v>242.2791099999998</v>
       </c>
       <c r="F16">
-        <v>-0.012240956</v>
+        <v>-0.0009775087999999992</v>
       </c>
       <c r="G16">
-        <v>-0.0067091534</v>
+        <v>0.009084998199999982</v>
       </c>
       <c r="H16">
-        <v>0.010282672</v>
+        <v>0.01191020499999998</v>
       </c>
       <c r="I16">
-        <v>-0.0017802751</v>
+        <v>-0.01236578099999999</v>
       </c>
       <c r="J16">
-        <v>121.14151</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="K16">
-        <v>121.14151</v>
+        <v>0.0007090084299999996</v>
       </c>
       <c r="L16">
-        <v>-0.012240956</v>
+        <v>-0.0009775087999999992</v>
       </c>
       <c r="M16">
-        <v>-0.00576597377</v>
+        <v>121.1390662455999</v>
       </c>
       <c r="N16">
-        <v>-0.00576597377</v>
+        <v>121.1390662455999</v>
       </c>
       <c r="O16">
-        <v>-0.004437407546666667</v>
+        <v>80.75525557006661</v>
       </c>
       <c r="P16">
-        <v>40.37665935082</v>
+        <v>80.75961383320994</v>
       </c>
       <c r="Q16">
-        <v>40.37665935082</v>
+        <v>80.75961383320994</v>
       </c>
       <c r="R16">
-        <v>60.567872013115</v>
+        <v>60.56988762701496</v>
       </c>
       <c r="S16">
-        <v>60.567872013115</v>
+        <v>60.56988762701496</v>
       </c>
       <c r="T16">
-        <v>20.18862854932667</v>
+        <v>40.3812451536383</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>-0.013690301</v>
+        <v>121.14151</v>
       </c>
       <c r="D17">
-        <v>0.010449277</v>
+        <v>0.00070900846</v>
       </c>
       <c r="E17">
-        <v>0.010449277</v>
+        <v>0.00070900846</v>
       </c>
       <c r="F17">
-        <v>0.018752165</v>
+        <v>-0.012240956</v>
       </c>
       <c r="G17">
-        <v>-0.010820541</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="H17">
-        <v>8.457315400000001</v>
+        <v>0.010282672</v>
       </c>
       <c r="I17">
-        <v>0.00078478051</v>
+        <v>-0.0017802751</v>
       </c>
       <c r="J17">
-        <v>-0.013690301</v>
+        <v>121.14151</v>
       </c>
       <c r="K17">
-        <v>-0.013690301</v>
+        <v>121.14151</v>
       </c>
       <c r="L17">
-        <v>0.018752165</v>
+        <v>-0.012240956</v>
       </c>
       <c r="M17">
-        <v>0.014600721</v>
+        <v>-0.00576597377</v>
       </c>
       <c r="N17">
-        <v>0.014600721</v>
+        <v>-0.00576597377</v>
       </c>
       <c r="O17">
-        <v>0.009995407503333333</v>
+        <v>-0.004437407546666667</v>
       </c>
       <c r="P17">
-        <v>0.005170380333333334</v>
+        <v>40.37665935082</v>
       </c>
       <c r="Q17">
-        <v>0.005170380333333334</v>
+        <v>40.37665935082</v>
       </c>
       <c r="R17">
-        <v>0.0004552100000000002</v>
+        <v>60.567872013115</v>
       </c>
       <c r="S17">
-        <v>0.0004552100000000002</v>
+        <v>60.567872013115</v>
       </c>
       <c r="T17">
-        <v>1.410465130085</v>
+        <v>20.18862854932667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>9.128769431760546</v>
+        <v>121.14151</v>
       </c>
       <c r="D18">
-        <v>14.94741682780137</v>
+        <v>0.00070900846</v>
       </c>
       <c r="E18">
-        <v>14.94741682780137</v>
+        <v>0.00070900846</v>
       </c>
       <c r="F18">
-        <v>0.005261852099726029</v>
+        <v>-0.012240956</v>
       </c>
       <c r="G18">
-        <v>0.000338818719780822</v>
+        <v>-0.0067091534</v>
       </c>
       <c r="H18">
-        <v>0.007498260964383564</v>
+        <v>0.010282672</v>
       </c>
       <c r="I18">
-        <v>6.924194788861644</v>
+        <v>-0.0017802751</v>
       </c>
       <c r="J18">
-        <v>9.128769431760546</v>
+        <v>121.14151</v>
       </c>
       <c r="K18">
-        <v>9.128769431760546</v>
+        <v>121.14151</v>
       </c>
       <c r="L18">
-        <v>0.005261852099726029</v>
+        <v>-0.012240956</v>
       </c>
       <c r="M18">
-        <v>7.476339339950548</v>
+        <v>-0.00576597377</v>
       </c>
       <c r="N18">
-        <v>7.476339339950548</v>
+        <v>-0.00576597377</v>
       </c>
       <c r="O18">
-        <v>7.292291156254247</v>
+        <v>-0.004437407546666667</v>
       </c>
       <c r="P18">
-        <v>8.027149370553881</v>
+        <v>40.37665935082</v>
       </c>
       <c r="Q18">
-        <v>8.027149370553881</v>
+        <v>40.37665935082</v>
       </c>
       <c r="R18">
-        <v>8.302554385855547</v>
+        <v>60.567872013115</v>
       </c>
       <c r="S18">
-        <v>8.302554385855547</v>
+        <v>60.567872013115</v>
       </c>
       <c r="T18">
-        <v>5.168913330034575</v>
+        <v>20.18862854932667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>6.77518528468579</v>
+        <v>-0.013690301</v>
       </c>
       <c r="D19">
-        <v>13.55024100243999</v>
+        <v>0.010449277</v>
       </c>
       <c r="E19">
-        <v>13.55024100243999</v>
+        <v>0.010449277</v>
       </c>
       <c r="F19">
-        <v>3.576545425997369</v>
+        <v>0.018752165</v>
       </c>
       <c r="G19">
-        <v>-0.007005507620000001</v>
+        <v>-0.010820541</v>
       </c>
       <c r="H19">
-        <v>10.73438975628948</v>
+        <v>8.457315400000001</v>
       </c>
       <c r="I19">
-        <v>0.001342648583157895</v>
+        <v>0.00078478051</v>
       </c>
       <c r="J19">
-        <v>6.77518528468579</v>
+        <v>-0.013690301</v>
       </c>
       <c r="K19">
-        <v>6.77518528468579</v>
+        <v>-0.013690301</v>
       </c>
       <c r="L19">
-        <v>3.576545425997369</v>
+        <v>0.018752165</v>
       </c>
       <c r="M19">
-        <v>8.56339321421868</v>
+        <v>0.014600721</v>
       </c>
       <c r="N19">
-        <v>8.56339321421868</v>
+        <v>0.014600721</v>
       </c>
       <c r="O19">
-        <v>5.709376359006839</v>
+        <v>0.009995407503333333</v>
       </c>
       <c r="P19">
-        <v>7.967323904374383</v>
+        <v>0.005170380333333334</v>
       </c>
       <c r="Q19">
-        <v>7.967323904374383</v>
+        <v>0.005170380333333334</v>
       </c>
       <c r="R19">
-        <v>7.669289249452235</v>
+        <v>0.0004552100000000002</v>
       </c>
       <c r="S19">
-        <v>7.669289249452235</v>
+        <v>0.0004552100000000002</v>
       </c>
       <c r="T19">
-        <v>5.771783101729297</v>
+        <v>1.410465130085</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>6.77518528468579</v>
+        <v>9.128769431760546</v>
       </c>
       <c r="D20">
-        <v>13.55024100243999</v>
+        <v>14.94741682780137</v>
       </c>
       <c r="E20">
-        <v>13.55024100243999</v>
+        <v>14.94741682780137</v>
       </c>
       <c r="F20">
-        <v>3.576545425997369</v>
+        <v>0.005261852099726029</v>
       </c>
       <c r="G20">
-        <v>-0.007005507620000001</v>
+        <v>0.000338818719780822</v>
       </c>
       <c r="H20">
-        <v>10.73438975628948</v>
+        <v>0.007498260964383564</v>
       </c>
       <c r="I20">
-        <v>0.001342648583157895</v>
+        <v>6.924194788861644</v>
       </c>
       <c r="J20">
-        <v>6.77518528468579</v>
+        <v>9.128769431760546</v>
       </c>
       <c r="K20">
-        <v>6.77518528468579</v>
+        <v>9.128769431760546</v>
       </c>
       <c r="L20">
-        <v>3.576545425997369</v>
+        <v>0.005261852099726029</v>
       </c>
       <c r="M20">
-        <v>8.56339321421868</v>
+        <v>7.476339339950548</v>
       </c>
       <c r="N20">
-        <v>8.56339321421868</v>
+        <v>7.476339339950548</v>
       </c>
       <c r="O20">
-        <v>5.709376359006839</v>
+        <v>7.292291156254247</v>
       </c>
       <c r="P20">
-        <v>7.967323904374383</v>
+        <v>8.027149370553881</v>
       </c>
       <c r="Q20">
-        <v>7.967323904374383</v>
+        <v>8.027149370553881</v>
       </c>
       <c r="R20">
-        <v>7.669289249452235</v>
+        <v>8.302554385855547</v>
       </c>
       <c r="S20">
-        <v>7.669289249452235</v>
+        <v>8.302554385855547</v>
       </c>
       <c r="T20">
-        <v>5.771783101729297</v>
+        <v>5.168913330034575</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.003429442487536849</v>
+        <v>6.77518528468579</v>
       </c>
       <c r="D21">
-        <v>0.003550294423994047</v>
+        <v>13.55024100243999</v>
       </c>
       <c r="E21">
-        <v>0.003550294423994047</v>
+        <v>13.55024100243999</v>
       </c>
       <c r="F21">
-        <v>-0.001502850586985303</v>
+        <v>3.576545425997369</v>
       </c>
       <c r="G21">
-        <v>3.329147908393139</v>
+        <v>-0.007005507620000001</v>
       </c>
       <c r="H21">
-        <v>0.4085801478221999</v>
+        <v>10.73438975628948</v>
       </c>
       <c r="I21">
-        <v>-0.001791996581089031</v>
+        <v>0.001342648583157895</v>
       </c>
       <c r="J21">
-        <v>0.003429442487536849</v>
+        <v>6.77518528468579</v>
       </c>
       <c r="K21">
-        <v>0.003429442487536849</v>
+        <v>6.77518528468579</v>
       </c>
       <c r="L21">
-        <v>-0.001502850586985303</v>
+        <v>3.576545425997369</v>
       </c>
       <c r="M21">
-        <v>0.001023721918504372</v>
+        <v>8.56339321421868</v>
       </c>
       <c r="N21">
-        <v>0.001023721918504372</v>
+        <v>8.56339321421868</v>
       </c>
       <c r="O21">
-        <v>8.514908530657113E-05</v>
+        <v>5.709376359006839</v>
       </c>
       <c r="P21">
-        <v>0.001825628774848531</v>
+        <v>7.967323904374383</v>
       </c>
       <c r="Q21">
-        <v>0.001825628774848531</v>
+        <v>7.967323904374383</v>
       </c>
       <c r="R21">
-        <v>0.002226582203020611</v>
+        <v>7.669289249452235</v>
       </c>
       <c r="S21">
-        <v>0.002226582203020611</v>
+        <v>7.669289249452235</v>
       </c>
       <c r="T21">
-        <v>0.623568824326466</v>
+        <v>5.771783101729297</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.697254818845401</v>
+        <v>6.77518528468579</v>
       </c>
       <c r="D22">
-        <v>0.07612010679240608</v>
+        <v>13.55024100243999</v>
       </c>
       <c r="E22">
-        <v>0.07612010679240608</v>
+        <v>13.55024100243999</v>
       </c>
       <c r="F22">
-        <v>0.04034612682130258</v>
+        <v>3.576545425997369</v>
       </c>
       <c r="G22">
-        <v>0.6961009520903263</v>
+        <v>-0.007005507620000001</v>
       </c>
       <c r="H22">
-        <v>0.2668842195185722</v>
+        <v>10.73438975628948</v>
       </c>
       <c r="I22">
-        <v>3.539634565328714</v>
+        <v>0.001342648583157895</v>
       </c>
       <c r="J22">
-        <v>1.697254818845401</v>
+        <v>6.77518528468579</v>
       </c>
       <c r="K22">
-        <v>1.697254818845401</v>
+        <v>6.77518528468579</v>
       </c>
       <c r="L22">
-        <v>0.04034612682130258</v>
+        <v>3.576545425997369</v>
       </c>
       <c r="M22">
-        <v>0.05823311680685433</v>
+        <v>8.56339321421868</v>
       </c>
       <c r="N22">
-        <v>0.05823311680685433</v>
+        <v>8.56339321421868</v>
       </c>
       <c r="O22">
-        <v>1.218700266314141</v>
+        <v>5.709376359006839</v>
       </c>
       <c r="P22">
-        <v>0.6045736841530366</v>
+        <v>7.967323904374383</v>
       </c>
       <c r="Q22">
-        <v>0.6045736841530365</v>
+        <v>7.967323904374383</v>
       </c>
       <c r="R22">
-        <v>0.8777439678261276</v>
+        <v>7.669289249452235</v>
       </c>
       <c r="S22">
-        <v>0.8777439678261276</v>
+        <v>7.669289249452235</v>
       </c>
       <c r="T22">
-        <v>1.052723464899454</v>
+        <v>5.771783101729297</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>5.66284010751539</v>
+        <v>0.003429442487536849</v>
       </c>
       <c r="D23">
-        <v>0.001299818629037552</v>
+        <v>0.003550294423994047</v>
       </c>
       <c r="E23">
-        <v>0.001299818629037552</v>
+        <v>0.003550294423994047</v>
       </c>
       <c r="F23">
-        <v>-0.001364000895071943</v>
+        <v>-0.001502850586985303</v>
       </c>
       <c r="G23">
-        <v>1.199397461479271</v>
+        <v>3.329147908393139</v>
       </c>
       <c r="H23">
-        <v>0.0009333249709170005</v>
+        <v>0.4085801478221999</v>
       </c>
       <c r="I23">
-        <v>1.442004732701281</v>
+        <v>-0.001791996581089031</v>
       </c>
       <c r="J23">
-        <v>5.66284010751539</v>
+        <v>0.003429442487536849</v>
       </c>
       <c r="K23">
-        <v>5.66284010751539</v>
+        <v>0.003429442487536849</v>
       </c>
       <c r="L23">
-        <v>-0.001364000895071943</v>
+        <v>-0.001502850586985303</v>
       </c>
       <c r="M23">
-        <v>-3.20911330171955E-05</v>
+        <v>0.001023721918504372</v>
       </c>
       <c r="N23">
-        <v>-3.20911330171955E-05</v>
+        <v>0.001023721918504372</v>
       </c>
       <c r="O23">
-        <v>0.4806468501450822</v>
+        <v>8.514908530657113E-05</v>
       </c>
       <c r="P23">
-        <v>1.887591975083118</v>
+        <v>0.001825628774848531</v>
       </c>
       <c r="Q23">
-        <v>1.887591975083118</v>
+        <v>0.001825628774848531</v>
       </c>
       <c r="R23">
-        <v>2.831404008191186</v>
+        <v>0.002226582203020611</v>
       </c>
       <c r="S23">
-        <v>2.831404008191186</v>
+        <v>0.002226582203020611</v>
       </c>
       <c r="T23">
-        <v>1.384185240733471</v>
+        <v>0.623568824326466</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>-0.003057026860160005</v>
+        <v>1.697254818845401</v>
       </c>
       <c r="D24">
-        <v>0.07655865010261245</v>
+        <v>0.07612010679240608</v>
       </c>
       <c r="E24">
-        <v>0.07655865010261245</v>
+        <v>0.07612010679240608</v>
       </c>
       <c r="F24">
-        <v>3.85831963452449</v>
+        <v>0.04034612682130258</v>
       </c>
       <c r="G24">
-        <v>1.104380602830818</v>
+        <v>0.6961009520903263</v>
       </c>
       <c r="H24">
-        <v>0.005684776780114497</v>
+        <v>0.2668842195185722</v>
       </c>
       <c r="I24">
-        <v>0.002382954125453752</v>
+        <v>3.539634565328714</v>
       </c>
       <c r="J24">
-        <v>-0.003057026860160005</v>
+        <v>1.697254818845401</v>
       </c>
       <c r="K24">
-        <v>-0.003057026860160005</v>
+        <v>1.697254818845401</v>
       </c>
       <c r="L24">
-        <v>3.85831963452449</v>
+        <v>0.04034612682130258</v>
       </c>
       <c r="M24">
-        <v>1.967439142313551</v>
+        <v>0.05823311680685433</v>
       </c>
       <c r="N24">
-        <v>1.967439142313551</v>
+        <v>0.05823311680685433</v>
       </c>
       <c r="O24">
-        <v>1.312420412917519</v>
+        <v>1.218700266314141</v>
       </c>
       <c r="P24">
-        <v>1.310607085922314</v>
+        <v>0.6045736841530366</v>
       </c>
       <c r="Q24">
-        <v>1.310607085922314</v>
+        <v>0.6045736841530365</v>
       </c>
       <c r="R24">
-        <v>0.9821910577266957</v>
+        <v>0.8777439678261276</v>
       </c>
       <c r="S24">
-        <v>0.9821910577266957</v>
+        <v>0.8777439678261276</v>
       </c>
       <c r="T24">
-        <v>0.8407115985838881</v>
+        <v>1.052723464899454</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.003429442487536846</v>
+        <v>5.66284010751539</v>
       </c>
       <c r="D25">
-        <v>0.003550294423994053</v>
+        <v>0.001299818629037552</v>
       </c>
       <c r="E25">
-        <v>0.003550294423994053</v>
+        <v>0.001299818629037552</v>
       </c>
       <c r="F25">
-        <v>-0.001502850586985293</v>
+        <v>-0.001364000895071943</v>
       </c>
       <c r="G25">
-        <v>3.329147908393139</v>
+        <v>1.199397461479271</v>
       </c>
       <c r="H25">
-        <v>0.4085801478222001</v>
+        <v>0.0009333249709170005</v>
       </c>
       <c r="I25">
-        <v>-0.001791996581089037</v>
+        <v>1.442004732701281</v>
       </c>
       <c r="J25">
-        <v>0.003429442487536846</v>
+        <v>5.66284010751539</v>
       </c>
       <c r="K25">
-        <v>0.003429442487536846</v>
+        <v>5.66284010751539</v>
       </c>
       <c r="L25">
-        <v>-0.001502850586985293</v>
+        <v>-0.001364000895071943</v>
       </c>
       <c r="M25">
-        <v>0.00102372191850438</v>
+        <v>-3.20911330171955E-05</v>
       </c>
       <c r="N25">
-        <v>0.00102372191850438</v>
+        <v>-3.20911330171955E-05</v>
       </c>
       <c r="O25">
-        <v>8.514908530657438E-05</v>
+        <v>0.4806468501450822</v>
       </c>
       <c r="P25">
-        <v>0.001825628774848535</v>
+        <v>1.887591975083118</v>
       </c>
       <c r="Q25">
-        <v>0.001825628774848535</v>
+        <v>1.887591975083118</v>
       </c>
       <c r="R25">
-        <v>0.002226582203020613</v>
+        <v>2.831404008191186</v>
       </c>
       <c r="S25">
-        <v>0.002226582203020613</v>
+        <v>2.831404008191186</v>
       </c>
       <c r="T25">
-        <v>0.623568824326466</v>
+        <v>1.384185240733471</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.697254818845405</v>
+        <v>-0.003057026860160005</v>
       </c>
       <c r="D26">
-        <v>0.07612010679242513</v>
+        <v>0.07655865010261245</v>
       </c>
       <c r="E26">
-        <v>0.07612010679242513</v>
+        <v>0.07655865010261245</v>
       </c>
       <c r="F26">
-        <v>0.04034612682130267</v>
+        <v>3.85831963452449</v>
       </c>
       <c r="G26">
-        <v>0.6961009520903245</v>
+        <v>1.104380602830818</v>
       </c>
       <c r="H26">
-        <v>0.2668842195185726</v>
+        <v>0.005684776780114497</v>
       </c>
       <c r="I26">
-        <v>3.539634565328714</v>
+        <v>0.002382954125453752</v>
       </c>
       <c r="J26">
-        <v>1.697254818845405</v>
+        <v>-0.003057026860160005</v>
       </c>
       <c r="K26">
-        <v>1.697254818845405</v>
+        <v>-0.003057026860160005</v>
       </c>
       <c r="L26">
-        <v>0.04034612682130267</v>
+        <v>3.85831963452449</v>
       </c>
       <c r="M26">
-        <v>0.0582331168068639</v>
+        <v>1.967439142313551</v>
       </c>
       <c r="N26">
-        <v>0.0582331168068639</v>
+        <v>1.967439142313551</v>
       </c>
       <c r="O26">
-        <v>1.218700266314147</v>
+        <v>1.312420412917519</v>
       </c>
       <c r="P26">
-        <v>0.6045736841530444</v>
+        <v>1.310607085922314</v>
       </c>
       <c r="Q26">
-        <v>0.6045736841530442</v>
+        <v>1.310607085922314</v>
       </c>
       <c r="R26">
-        <v>0.8777439678261345</v>
+        <v>0.9821910577266957</v>
       </c>
       <c r="S26">
-        <v>0.8777439678261345</v>
+        <v>0.9821910577266957</v>
       </c>
       <c r="T26">
-        <v>1.052723464899457</v>
+        <v>0.8407115985838881</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>-0.005718491557776391</v>
+        <v>0.003429442487536846</v>
       </c>
       <c r="D27">
-        <v>14.25126749849808</v>
+        <v>0.003550294423994053</v>
       </c>
       <c r="E27">
-        <v>14.25126749849808</v>
+        <v>0.003550294423994053</v>
       </c>
       <c r="F27">
-        <v>2.171919084534544</v>
+        <v>-0.001502850586985293</v>
       </c>
       <c r="G27">
-        <v>-0.006321174778552237</v>
+        <v>3.329147908393139</v>
       </c>
       <c r="H27">
-        <v>-0.005289609818362497</v>
+        <v>0.4085801478222001</v>
       </c>
       <c r="I27">
-        <v>10.71307717366565</v>
+        <v>-0.001791996581089037</v>
       </c>
       <c r="J27">
-        <v>-0.005718491557776391</v>
+        <v>0.003429442487536846</v>
       </c>
       <c r="K27">
-        <v>-0.005718491557776391</v>
+        <v>0.003429442487536846</v>
       </c>
       <c r="L27">
-        <v>2.171919084534544</v>
+        <v>-0.001502850586985293</v>
       </c>
       <c r="M27">
-        <v>8.211593291516312</v>
+        <v>0.00102372191850438</v>
       </c>
       <c r="N27">
-        <v>8.211593291516312</v>
+        <v>0.00102372191850438</v>
       </c>
       <c r="O27">
-        <v>9.045421252232757</v>
+        <v>8.514908530657438E-05</v>
       </c>
       <c r="P27">
-        <v>5.472489363824949</v>
+        <v>0.001825628774848535</v>
       </c>
       <c r="Q27">
-        <v>5.472489363824948</v>
+        <v>0.001825628774848535</v>
       </c>
       <c r="R27">
-        <v>4.102937399979267</v>
+        <v>0.002226582203020613</v>
       </c>
       <c r="S27">
-        <v>4.102937399979267</v>
+        <v>0.002226582203020613</v>
       </c>
       <c r="T27">
-        <v>4.519822413423929</v>
+        <v>0.623568824326466</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>-0.002377520291847696</v>
+        <v>1.697254818845405</v>
       </c>
       <c r="D28">
-        <v>3.496886811922516</v>
+        <v>0.07612010679242513</v>
       </c>
       <c r="E28">
-        <v>3.496886811922516</v>
+        <v>0.07612010679242513</v>
       </c>
       <c r="F28">
-        <v>0.7661510322084321</v>
+        <v>0.04034612682130267</v>
       </c>
       <c r="G28">
-        <v>0.743772608987609</v>
+        <v>0.6961009520903245</v>
       </c>
       <c r="H28">
-        <v>16.46714932971365</v>
+        <v>0.2668842195185726</v>
       </c>
       <c r="I28">
-        <v>0.02824488313543952</v>
+        <v>3.539634565328714</v>
       </c>
       <c r="J28">
-        <v>-0.002377520291847696</v>
+        <v>1.697254818845405</v>
       </c>
       <c r="K28">
-        <v>-0.002377520291847696</v>
+        <v>1.697254818845405</v>
       </c>
       <c r="L28">
-        <v>0.7661510322084321</v>
+        <v>0.04034612682130267</v>
       </c>
       <c r="M28">
-        <v>2.131518922065474</v>
+        <v>0.0582331168068639</v>
       </c>
       <c r="N28">
-        <v>2.131518922065474</v>
+        <v>0.0582331168068639</v>
       </c>
       <c r="O28">
-        <v>1.430427575755463</v>
+        <v>1.218700266314147</v>
       </c>
       <c r="P28">
-        <v>1.420220107946367</v>
+        <v>0.6045736841530444</v>
       </c>
       <c r="Q28">
-        <v>1.420220107946367</v>
+        <v>0.6045736841530442</v>
       </c>
       <c r="R28">
-        <v>1.064570700886813</v>
+        <v>0.8777439678261345</v>
       </c>
       <c r="S28">
-        <v>1.064570700886813</v>
+        <v>0.8777439678261345</v>
       </c>
       <c r="T28">
-        <v>3.5833045242793</v>
+        <v>1.052723464899457</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>-0.005718491557776391</v>
+      </c>
+      <c r="D29">
+        <v>14.25126749849808</v>
+      </c>
+      <c r="E29">
+        <v>14.25126749849808</v>
+      </c>
+      <c r="F29">
+        <v>2.171919084534544</v>
+      </c>
+      <c r="G29">
+        <v>-0.006321174778552237</v>
+      </c>
+      <c r="H29">
+        <v>-0.005289609818362497</v>
+      </c>
+      <c r="I29">
+        <v>10.71307717366565</v>
+      </c>
+      <c r="J29">
+        <v>-0.005718491557776391</v>
+      </c>
+      <c r="K29">
+        <v>-0.005718491557776391</v>
+      </c>
+      <c r="L29">
+        <v>2.171919084534544</v>
+      </c>
+      <c r="M29">
+        <v>8.211593291516312</v>
+      </c>
+      <c r="N29">
+        <v>8.211593291516312</v>
+      </c>
+      <c r="O29">
+        <v>9.045421252232757</v>
+      </c>
+      <c r="P29">
+        <v>5.472489363824949</v>
+      </c>
+      <c r="Q29">
+        <v>5.472489363824948</v>
+      </c>
+      <c r="R29">
+        <v>4.102937399979267</v>
+      </c>
+      <c r="S29">
+        <v>4.102937399979267</v>
+      </c>
+      <c r="T29">
+        <v>4.519822413423929</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>-0.002377520291847696</v>
+      </c>
+      <c r="D30">
+        <v>3.496886811922516</v>
+      </c>
+      <c r="E30">
+        <v>3.496886811922516</v>
+      </c>
+      <c r="F30">
+        <v>0.7661510322084321</v>
+      </c>
+      <c r="G30">
+        <v>0.743772608987609</v>
+      </c>
+      <c r="H30">
+        <v>16.46714932971365</v>
+      </c>
+      <c r="I30">
+        <v>0.02824488313543952</v>
+      </c>
+      <c r="J30">
+        <v>-0.002377520291847696</v>
+      </c>
+      <c r="K30">
+        <v>-0.002377520291847696</v>
+      </c>
+      <c r="L30">
+        <v>0.7661510322084321</v>
+      </c>
+      <c r="M30">
+        <v>2.131518922065474</v>
+      </c>
+      <c r="N30">
+        <v>2.131518922065474</v>
+      </c>
+      <c r="O30">
+        <v>1.430427575755463</v>
+      </c>
+      <c r="P30">
+        <v>1.420220107946367</v>
+      </c>
+      <c r="Q30">
+        <v>1.420220107946367</v>
+      </c>
+      <c r="R30">
+        <v>1.064570700886813</v>
+      </c>
+      <c r="S30">
+        <v>1.064570700886813</v>
+      </c>
+      <c r="T30">
+        <v>3.5833045242793</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>-0.002652606109622321</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>-0.008802696192055127</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>-0.008802696192055127</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.716321396839036</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.076342801926589</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>36.25399588862548</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.007088354832514044</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>-0.002652606109622321</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>-0.002652606109622321</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.716321396839036</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.8537593503234906</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.8537593503234906</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.5715356851598318</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.5682886981791196</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.5682886981791196</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.4255533721069341</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.4255533721069341</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>6.507048856653655</v>
       </c>
     </row>
